--- a/CellTransmission/DISTANCEMATRIX.xlsx
+++ b/CellTransmission/DISTANCEMATRIX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnav\Desktop\MTFC_2026\CellTransmission\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnav\Desktop\MAMS\MTFC_2026\CellTransmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8D9EE-7E64-4348-A8F6-31249A46D721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2082C06-DF7C-41B3-9CF5-53781769B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,11 +489,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3086,7 +3086,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CellTransmission/DISTANCEMATRIX.xlsx
+++ b/CellTransmission/DISTANCEMATRIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnav\Desktop\MAMS\MTFC_2026\CellTransmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2082C06-DF7C-41B3-9CF5-53781769B0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55774A37-26A7-4066-B514-102D1F22F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -493,7 +493,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3083,15 +3083,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDCC5AD-9036-49CA-97FA-721470AA7004}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="AG30" sqref="AG30"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3171,16 +3171,19 @@
         <v>2136</v>
       </c>
       <c r="AA1">
+        <v>2199</v>
+      </c>
+      <c r="AB1">
         <v>2203</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2210</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2215</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2108</v>
       </c>
@@ -3260,16 +3263,19 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2109</v>
       </c>
@@ -3349,16 +3355,19 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2110</v>
       </c>
@@ -3446,8 +3455,11 @@
       <c r="AC4">
         <v>0</v>
       </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2111</v>
       </c>
@@ -3535,8 +3547,11 @@
       <c r="AC5">
         <v>0</v>
       </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2113</v>
       </c>
@@ -3624,8 +3639,11 @@
       <c r="AC6">
         <v>0</v>
       </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2114</v>
       </c>
@@ -3705,16 +3723,19 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2115</v>
       </c>
@@ -3794,16 +3815,19 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2116</v>
       </c>
@@ -3891,8 +3915,11 @@
       <c r="AC9">
         <v>0</v>
       </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2118</v>
       </c>
@@ -3980,8 +4007,11 @@
       <c r="AC10">
         <v>0</v>
       </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2119</v>
       </c>
@@ -4069,8 +4099,11 @@
       <c r="AC11">
         <v>0</v>
       </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2120</v>
       </c>
@@ -4158,8 +4191,11 @@
       <c r="AC12">
         <v>0</v>
       </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2121</v>
       </c>
@@ -4247,8 +4283,11 @@
       <c r="AC13">
         <v>0</v>
       </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2122</v>
       </c>
@@ -4336,8 +4375,11 @@
       <c r="AC14">
         <v>0</v>
       </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2124</v>
       </c>
@@ -4425,8 +4467,11 @@
       <c r="AC15">
         <v>0</v>
       </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2125</v>
       </c>
@@ -4514,8 +4559,11 @@
       <c r="AC16">
         <v>0</v>
       </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2126</v>
       </c>
@@ -4603,8 +4651,11 @@
       <c r="AC17">
         <v>0</v>
       </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2127</v>
       </c>
@@ -4687,13 +4738,16 @@
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2128</v>
       </c>
@@ -4781,8 +4835,11 @@
       <c r="AC19">
         <v>0</v>
       </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2129</v>
       </c>
@@ -4870,8 +4927,11 @@
       <c r="AC20">
         <v>0</v>
       </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2130</v>
       </c>
@@ -4959,8 +5019,11 @@
       <c r="AC21">
         <v>0</v>
       </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2131</v>
       </c>
@@ -5048,8 +5111,11 @@
       <c r="AC22">
         <v>0</v>
       </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2132</v>
       </c>
@@ -5137,8 +5203,11 @@
       <c r="AC23">
         <v>0</v>
       </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2134</v>
       </c>
@@ -5218,16 +5287,19 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
       </c>
       <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2135</v>
       </c>
@@ -5315,360 +5387,380 @@
       <c r="AC25">
         <v>0</v>
       </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>2199</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>2203</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>2210</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>2215</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>1</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>1</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
         <v>0</v>
       </c>
     </row>
@@ -5679,19 +5771,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5651B-BE0E-4962-9469-32385FB48059}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="Q12" zoomScale="112" workbookViewId="0">
-      <selection activeCell="W26" sqref="W26"/>
+    <sheetView topLeftCell="A8" zoomScale="77" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="29" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>Adjacencies!A1</f>
         <v>ZIP</v>
@@ -5798,18 +5891,26 @@
       </c>
       <c r="AA1">
         <f>Adjacencies!AA1</f>
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="AB1">
         <f>Adjacencies!AB1</f>
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="AC1">
         <f>Adjacencies!AC1</f>
+        <v>2210</v>
+      </c>
+      <c r="AD1">
+        <f>Adjacencies!AD1</f>
         <v>2215</v>
       </c>
+      <c r="AE1">
+        <f>Adjacencies!AE1</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>Adjacencies!A2</f>
         <v>2108</v>
@@ -5916,18 +6017,22 @@
       </c>
       <c r="AA2">
         <f>Distances!AA2*Adjacencies!AA2</f>
-        <v>0.6822072111094476</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <f>Distances!AB2*Adjacencies!AB2</f>
-        <v>0</v>
+        <v>2.2789072175487659</v>
       </c>
       <c r="AC2">
         <f>Distances!AC2*Adjacencies!AC2</f>
         <v>0</v>
       </c>
+      <c r="AD2">
+        <f>Distances!AD2*Adjacencies!AD2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>Adjacencies!A3</f>
         <v>2109</v>
@@ -6034,18 +6139,22 @@
       </c>
       <c r="AA3">
         <f>Distances!AA3*Adjacencies!AA3</f>
-        <v>0.51242887089719813</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <f>Distances!AB3*Adjacencies!AB3</f>
-        <v>0</v>
+        <v>2.0894306212490799</v>
       </c>
       <c r="AC3">
         <f>Distances!AC3*Adjacencies!AC3</f>
         <v>0</v>
       </c>
+      <c r="AD3">
+        <f>Distances!AD3*Adjacencies!AD3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>Adjacencies!A4</f>
         <v>2110</v>
@@ -6162,8 +6271,12 @@
         <f>Distances!AC4*Adjacencies!AC4</f>
         <v>0</v>
       </c>
+      <c r="AD4">
+        <f>Distances!AD4*Adjacencies!AD4</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>Adjacencies!A5</f>
         <v>2111</v>
@@ -6280,8 +6393,12 @@
         <f>Distances!AC5*Adjacencies!AC5</f>
         <v>0</v>
       </c>
+      <c r="AD5">
+        <f>Distances!AD5*Adjacencies!AD5</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>Adjacencies!A6</f>
         <v>2113</v>
@@ -6398,8 +6515,12 @@
         <f>Distances!AC6*Adjacencies!AC6</f>
         <v>0</v>
       </c>
+      <c r="AD6">
+        <f>Distances!AD6*Adjacencies!AD6</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>Adjacencies!A7</f>
         <v>2114</v>
@@ -6506,18 +6627,22 @@
       </c>
       <c r="AA7">
         <f>Distances!AA7*Adjacencies!AA7</f>
-        <v>0.6677891066884647</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <f>Distances!AB7*Adjacencies!AB7</f>
-        <v>0</v>
+        <v>2.743934995419572</v>
       </c>
       <c r="AC7">
         <f>Distances!AC7*Adjacencies!AC7</f>
         <v>0</v>
       </c>
+      <c r="AD7">
+        <f>Distances!AD7*Adjacencies!AD7</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>Adjacencies!A8</f>
         <v>2115</v>
@@ -6624,7 +6749,7 @@
       </c>
       <c r="AA8">
         <f>Distances!AA8*Adjacencies!AA8</f>
-        <v>0</v>
+        <v>3.7000693962788049</v>
       </c>
       <c r="AB8">
         <f>Distances!AB8*Adjacencies!AB8</f>
@@ -6632,10 +6757,14 @@
       </c>
       <c r="AC8">
         <f>Distances!AC8*Adjacencies!AC8</f>
-        <v>0.90759130497246754</v>
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <f>Distances!AD8*Adjacencies!AD8</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>Adjacencies!A9</f>
         <v>2116</v>
@@ -6752,8 +6881,12 @@
         <f>Distances!AC9*Adjacencies!AC9</f>
         <v>0</v>
       </c>
+      <c r="AD9">
+        <f>Distances!AD9*Adjacencies!AD9</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>Adjacencies!A10</f>
         <v>2118</v>
@@ -6870,8 +7003,12 @@
         <f>Distances!AC10*Adjacencies!AC10</f>
         <v>0</v>
       </c>
+      <c r="AD10">
+        <f>Distances!AD10*Adjacencies!AD10</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>Adjacencies!A11</f>
         <v>2119</v>
@@ -6988,8 +7125,12 @@
         <f>Distances!AC11*Adjacencies!AC11</f>
         <v>0</v>
       </c>
+      <c r="AD11">
+        <f>Distances!AD11*Adjacencies!AD11</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>Adjacencies!A12</f>
         <v>2120</v>
@@ -7106,8 +7247,12 @@
         <f>Distances!AC12*Adjacencies!AC12</f>
         <v>0</v>
       </c>
+      <c r="AD12">
+        <f>Distances!AD12*Adjacencies!AD12</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>Adjacencies!A13</f>
         <v>2121</v>
@@ -7224,8 +7369,12 @@
         <f>Distances!AC13*Adjacencies!AC13</f>
         <v>0</v>
       </c>
+      <c r="AD13">
+        <f>Distances!AD13*Adjacencies!AD13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>Adjacencies!A14</f>
         <v>2122</v>
@@ -7342,8 +7491,12 @@
         <f>Distances!AC14*Adjacencies!AC14</f>
         <v>0</v>
       </c>
+      <c r="AD14">
+        <f>Distances!AD14*Adjacencies!AD14</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>Adjacencies!A15</f>
         <v>2124</v>
@@ -7460,8 +7613,12 @@
         <f>Distances!AC15*Adjacencies!AC15</f>
         <v>0</v>
       </c>
+      <c r="AD15">
+        <f>Distances!AD15*Adjacencies!AD15</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>Adjacencies!A16</f>
         <v>2125</v>
@@ -7578,8 +7735,12 @@
         <f>Distances!AC16*Adjacencies!AC16</f>
         <v>0</v>
       </c>
+      <c r="AD16">
+        <f>Distances!AD16*Adjacencies!AD16</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>Adjacencies!A17</f>
         <v>2126</v>
@@ -7696,8 +7857,12 @@
         <f>Distances!AC17*Adjacencies!AC17</f>
         <v>0</v>
       </c>
+      <c r="AD17">
+        <f>Distances!AD17*Adjacencies!AD17</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>Adjacencies!A18</f>
         <v>2127</v>
@@ -7808,14 +7973,18 @@
       </c>
       <c r="AB18">
         <f>Distances!AB18*Adjacencies!AB18</f>
-        <v>1.386892181924823</v>
+        <v>0</v>
       </c>
       <c r="AC18">
         <f>Distances!AC18*Adjacencies!AC18</f>
+        <v>5.3486802952533026</v>
+      </c>
+      <c r="AD18">
+        <f>Distances!AD18*Adjacencies!AD18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>Adjacencies!A19</f>
         <v>2128</v>
@@ -7932,8 +8101,12 @@
         <f>Distances!AC19*Adjacencies!AC19</f>
         <v>0</v>
       </c>
+      <c r="AD19">
+        <f>Distances!AD19*Adjacencies!AD19</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>Adjacencies!A20</f>
         <v>2129</v>
@@ -8050,8 +8223,12 @@
         <f>Distances!AC20*Adjacencies!AC20</f>
         <v>0</v>
       </c>
+      <c r="AD20">
+        <f>Distances!AD20*Adjacencies!AD20</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>Adjacencies!A21</f>
         <v>2130</v>
@@ -8168,8 +8345,12 @@
         <f>Distances!AC21*Adjacencies!AC21</f>
         <v>0</v>
       </c>
+      <c r="AD21">
+        <f>Distances!AD21*Adjacencies!AD21</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>Adjacencies!A22</f>
         <v>2131</v>
@@ -8286,8 +8467,12 @@
         <f>Distances!AC22*Adjacencies!AC22</f>
         <v>0</v>
       </c>
+      <c r="AD22">
+        <f>Distances!AD22*Adjacencies!AD22</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>Adjacencies!A23</f>
         <v>2132</v>
@@ -8404,8 +8589,12 @@
         <f>Distances!AC23*Adjacencies!AC23</f>
         <v>0</v>
       </c>
+      <c r="AD23">
+        <f>Distances!AD23*Adjacencies!AD23</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>Adjacencies!A24</f>
         <v>2134</v>
@@ -8512,7 +8701,7 @@
       </c>
       <c r="AA24">
         <f>Distances!AA24*Adjacencies!AA24</f>
-        <v>0</v>
+        <v>5.8517965093792981</v>
       </c>
       <c r="AB24">
         <f>Distances!AB24*Adjacencies!AB24</f>
@@ -8520,10 +8709,14 @@
       </c>
       <c r="AC24">
         <f>Distances!AC24*Adjacencies!AC24</f>
-        <v>2.6131979292027672</v>
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <f>Distances!AD24*Adjacencies!AD24</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>Adjacencies!A25</f>
         <v>2135</v>
@@ -8640,476 +8833,496 @@
         <f>Distances!AC25*Adjacencies!AC25</f>
         <v>0</v>
       </c>
+      <c r="AD25">
+        <f>Distances!AD25*Adjacencies!AD25</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f>Adjacencies!A26</f>
-        <v>2199</v>
-      </c>
-      <c r="B26">
-        <f>Distances!B26*Adjacencies!B26</f>
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <f>Distances!C26*Adjacencies!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f>Distances!D26*Adjacencies!D26</f>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>Distances!E26*Adjacencies!E26</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>Distances!F26*Adjacencies!F26</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>Distances!G26*Adjacencies!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f>Distances!H26*Adjacencies!H26</f>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f>Distances!I26*Adjacencies!I26</f>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f>Distances!J26*Adjacencies!J26</f>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>Distances!K26*Adjacencies!K26</f>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f>Distances!L26*Adjacencies!L26</f>
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f>Distances!M26*Adjacencies!M26</f>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f>Distances!N26*Adjacencies!N26</f>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f>Distances!O26*Adjacencies!O26</f>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f>Distances!P26*Adjacencies!P26</f>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f>Distances!Q26*Adjacencies!Q26</f>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f>Distances!R26*Adjacencies!R26</f>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f>Distances!S26*Adjacencies!S26</f>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f>Distances!T26*Adjacencies!T26</f>
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <f>Distances!U26*Adjacencies!U26</f>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <f>Distances!V26*Adjacencies!V26</f>
-        <v>7.8473697941195546</v>
-      </c>
-      <c r="W26">
-        <f>Distances!W26*Adjacencies!W26</f>
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <f>Distances!X26*Adjacencies!X26</f>
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <f>Distances!Y26*Adjacencies!Y26</f>
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <f>Distances!Z26*Adjacencies!Z26</f>
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <f>Distances!AA26*Adjacencies!AA26</f>
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <f>Distances!AB26*Adjacencies!AB26</f>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f>Distances!AC26*Adjacencies!AC26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>Adjacencies!A27</f>
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="B27">
-        <f>Distances!B27*Adjacencies!B27</f>
-        <v>0.6822072111094476</v>
+        <f>Distances!B26*Adjacencies!B27</f>
+        <v>0</v>
       </c>
       <c r="C27">
-        <f>Distances!C27*Adjacencies!C27</f>
-        <v>0.51242887089719813</v>
+        <f>Distances!C26*Adjacencies!C27</f>
+        <v>0</v>
       </c>
       <c r="D27">
-        <f>Distances!D27*Adjacencies!D27</f>
+        <f>Distances!D26*Adjacencies!D27</f>
         <v>0</v>
       </c>
       <c r="E27">
-        <f>Distances!E27*Adjacencies!E27</f>
+        <f>Distances!E26*Adjacencies!E27</f>
         <v>0</v>
       </c>
       <c r="F27">
-        <f>Distances!F27*Adjacencies!F27</f>
+        <f>Distances!F26*Adjacencies!F27</f>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>Distances!G27*Adjacencies!G27</f>
-        <v>0.6677891066884647</v>
+        <f>Distances!G26*Adjacencies!G27</f>
+        <v>0</v>
       </c>
       <c r="H27">
-        <f>Distances!H27*Adjacencies!H27</f>
-        <v>0</v>
+        <f>Distances!H26*Adjacencies!H27</f>
+        <v>1.2944616070703141</v>
       </c>
       <c r="I27">
-        <f>Distances!I27*Adjacencies!I27</f>
+        <f>Distances!I26*Adjacencies!I27</f>
         <v>0</v>
       </c>
       <c r="J27">
-        <f>Distances!J27*Adjacencies!J27</f>
+        <f>Distances!J26*Adjacencies!J27</f>
         <v>0</v>
       </c>
       <c r="K27">
-        <f>Distances!K27*Adjacencies!K27</f>
+        <f>Distances!K26*Adjacencies!K27</f>
         <v>0</v>
       </c>
       <c r="L27">
-        <f>Distances!L27*Adjacencies!L27</f>
+        <f>Distances!L26*Adjacencies!L27</f>
         <v>0</v>
       </c>
       <c r="M27">
-        <f>Distances!M27*Adjacencies!M27</f>
+        <f>Distances!M26*Adjacencies!M27</f>
         <v>0</v>
       </c>
       <c r="N27">
-        <f>Distances!N27*Adjacencies!N27</f>
+        <f>Distances!N26*Adjacencies!N27</f>
         <v>0</v>
       </c>
       <c r="O27">
-        <f>Distances!O27*Adjacencies!O27</f>
+        <f>Distances!O26*Adjacencies!O27</f>
         <v>0</v>
       </c>
       <c r="P27">
-        <f>Distances!P27*Adjacencies!P27</f>
+        <f>Distances!P26*Adjacencies!P27</f>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f>Distances!Q27*Adjacencies!Q27</f>
+        <f>Distances!Q26*Adjacencies!Q27</f>
         <v>0</v>
       </c>
       <c r="R27">
-        <f>Distances!R27*Adjacencies!R27</f>
+        <f>Distances!R26*Adjacencies!R27</f>
         <v>0</v>
       </c>
       <c r="S27">
-        <f>Distances!S27*Adjacencies!S27</f>
+        <f>Distances!S26*Adjacencies!S27</f>
         <v>0</v>
       </c>
       <c r="T27">
-        <f>Distances!T27*Adjacencies!T27</f>
+        <f>Distances!T26*Adjacencies!T27</f>
         <v>0</v>
       </c>
       <c r="U27">
-        <f>Distances!U27*Adjacencies!U27</f>
+        <f>Distances!U26*Adjacencies!U27</f>
         <v>0</v>
       </c>
       <c r="V27">
-        <f>Distances!V27*Adjacencies!V27</f>
+        <f>Distances!V26*Adjacencies!V27</f>
         <v>0</v>
       </c>
       <c r="W27">
-        <f>Distances!W27*Adjacencies!W27</f>
+        <f>Distances!W26*Adjacencies!W27</f>
         <v>0</v>
       </c>
       <c r="X27">
-        <f>Distances!X27*Adjacencies!X27</f>
-        <v>0</v>
+        <f>Distances!X26*Adjacencies!X27</f>
+        <v>4.1022062162205559</v>
       </c>
       <c r="Y27">
-        <f>Distances!Y27*Adjacencies!Y27</f>
+        <f>Distances!Y26*Adjacencies!Y27</f>
         <v>0</v>
       </c>
       <c r="Z27">
-        <f>Distances!Z27*Adjacencies!Z27</f>
+        <f>Distances!Z26*Adjacencies!Z27</f>
         <v>0</v>
       </c>
       <c r="AA27">
-        <f>Distances!AA27*Adjacencies!AA27</f>
+        <f>Distances!AA26*Adjacencies!AA27</f>
         <v>0</v>
       </c>
       <c r="AB27">
-        <f>Distances!AB27*Adjacencies!AB27</f>
+        <f>Distances!AB26*Adjacencies!AB27</f>
         <v>0</v>
       </c>
       <c r="AC27">
-        <f>Distances!AC27*Adjacencies!AC27</f>
+        <f>Distances!AC26*Adjacencies!AC27</f>
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <f>Distances!AD26*Adjacencies!AD27</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>Adjacencies!A28</f>
-        <v>2210</v>
+        <v>2203</v>
       </c>
       <c r="B28">
-        <f>Distances!B28*Adjacencies!B28</f>
-        <v>0</v>
+        <f>Distances!B27*Adjacencies!B28</f>
+        <v>0.6822072111094476</v>
       </c>
       <c r="C28">
-        <f>Distances!C28*Adjacencies!C28</f>
-        <v>0</v>
+        <f>Distances!C27*Adjacencies!C28</f>
+        <v>0.51242887089719813</v>
       </c>
       <c r="D28">
-        <f>Distances!D28*Adjacencies!D28</f>
+        <f>Distances!D27*Adjacencies!D28</f>
         <v>0</v>
       </c>
       <c r="E28">
-        <f>Distances!E28*Adjacencies!E28</f>
+        <f>Distances!E27*Adjacencies!E28</f>
         <v>0</v>
       </c>
       <c r="F28">
-        <f>Distances!F28*Adjacencies!F28</f>
+        <f>Distances!F27*Adjacencies!F28</f>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>Distances!G28*Adjacencies!G28</f>
-        <v>0</v>
+        <f>Distances!G27*Adjacencies!G28</f>
+        <v>0.6677891066884647</v>
       </c>
       <c r="H28">
-        <f>Distances!H28*Adjacencies!H28</f>
+        <f>Distances!H27*Adjacencies!H28</f>
         <v>0</v>
       </c>
       <c r="I28">
-        <f>Distances!I28*Adjacencies!I28</f>
+        <f>Distances!I27*Adjacencies!I28</f>
         <v>0</v>
       </c>
       <c r="J28">
-        <f>Distances!J28*Adjacencies!J28</f>
+        <f>Distances!J27*Adjacencies!J28</f>
         <v>0</v>
       </c>
       <c r="K28">
-        <f>Distances!K28*Adjacencies!K28</f>
+        <f>Distances!K27*Adjacencies!K28</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>Distances!L28*Adjacencies!L28</f>
+        <f>Distances!L27*Adjacencies!L28</f>
         <v>0</v>
       </c>
       <c r="M28">
-        <f>Distances!M28*Adjacencies!M28</f>
+        <f>Distances!M27*Adjacencies!M28</f>
         <v>0</v>
       </c>
       <c r="N28">
-        <f>Distances!N28*Adjacencies!N28</f>
+        <f>Distances!N27*Adjacencies!N28</f>
         <v>0</v>
       </c>
       <c r="O28">
-        <f>Distances!O28*Adjacencies!O28</f>
+        <f>Distances!O27*Adjacencies!O28</f>
         <v>0</v>
       </c>
       <c r="P28">
-        <f>Distances!P28*Adjacencies!P28</f>
+        <f>Distances!P27*Adjacencies!P28</f>
         <v>0</v>
       </c>
       <c r="Q28">
-        <f>Distances!Q28*Adjacencies!Q28</f>
+        <f>Distances!Q27*Adjacencies!Q28</f>
         <v>0</v>
       </c>
       <c r="R28">
-        <f>Distances!R28*Adjacencies!R28</f>
-        <v>1.386892181924823</v>
+        <f>Distances!R27*Adjacencies!R28</f>
+        <v>0</v>
       </c>
       <c r="S28">
-        <f>Distances!S28*Adjacencies!S28</f>
+        <f>Distances!S27*Adjacencies!S28</f>
         <v>0</v>
       </c>
       <c r="T28">
-        <f>Distances!T28*Adjacencies!T28</f>
+        <f>Distances!T27*Adjacencies!T28</f>
         <v>0</v>
       </c>
       <c r="U28">
-        <f>Distances!U28*Adjacencies!U28</f>
+        <f>Distances!U27*Adjacencies!U28</f>
         <v>0</v>
       </c>
       <c r="V28">
-        <f>Distances!V28*Adjacencies!V28</f>
+        <f>Distances!V27*Adjacencies!V28</f>
         <v>0</v>
       </c>
       <c r="W28">
-        <f>Distances!W28*Adjacencies!W28</f>
+        <f>Distances!W27*Adjacencies!W28</f>
         <v>0</v>
       </c>
       <c r="X28">
-        <f>Distances!X28*Adjacencies!X28</f>
+        <f>Distances!X27*Adjacencies!X28</f>
         <v>0</v>
       </c>
       <c r="Y28">
-        <f>Distances!Y28*Adjacencies!Y28</f>
+        <f>Distances!Y27*Adjacencies!Y28</f>
         <v>0</v>
       </c>
       <c r="Z28">
-        <f>Distances!Z28*Adjacencies!Z28</f>
+        <f>Distances!Z27*Adjacencies!Z28</f>
         <v>0</v>
       </c>
       <c r="AA28">
-        <f>Distances!AA28*Adjacencies!AA28</f>
+        <f>Distances!AA27*Adjacencies!AA28</f>
         <v>0</v>
       </c>
       <c r="AB28">
-        <f>Distances!AB28*Adjacencies!AB28</f>
+        <f>Distances!AB27*Adjacencies!AB28</f>
         <v>0</v>
       </c>
       <c r="AC28">
-        <f>Distances!AC28*Adjacencies!AC28</f>
+        <f>Distances!AC27*Adjacencies!AC28</f>
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <f>Distances!AD27*Adjacencies!AD28</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>Adjacencies!A29</f>
+        <v>2210</v>
+      </c>
+      <c r="B29">
+        <f>Distances!B28*Adjacencies!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>Distances!C28*Adjacencies!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>Distances!D28*Adjacencies!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>Distances!E28*Adjacencies!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>Distances!F28*Adjacencies!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>Distances!G28*Adjacencies!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>Distances!H28*Adjacencies!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>Distances!I28*Adjacencies!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>Distances!J28*Adjacencies!J29</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>Distances!K28*Adjacencies!K29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>Distances!L28*Adjacencies!L29</f>
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f>Distances!M28*Adjacencies!M29</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>Distances!N28*Adjacencies!N29</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>Distances!O28*Adjacencies!O29</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>Distances!P28*Adjacencies!P29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>Distances!Q28*Adjacencies!Q29</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>Distances!R28*Adjacencies!R29</f>
+        <v>1.386892181924823</v>
+      </c>
+      <c r="S29">
+        <f>Distances!S28*Adjacencies!S29</f>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f>Distances!T28*Adjacencies!T29</f>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f>Distances!U28*Adjacencies!U29</f>
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <f>Distances!V28*Adjacencies!V29</f>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f>Distances!W28*Adjacencies!W29</f>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f>Distances!X28*Adjacencies!X29</f>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f>Distances!Y28*Adjacencies!Y29</f>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f>Distances!Z28*Adjacencies!Z29</f>
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <f>Distances!AA28*Adjacencies!AA29</f>
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <f>Distances!AB28*Adjacencies!AB29</f>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f>Distances!AC28*Adjacencies!AC29</f>
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <f>Distances!AD28*Adjacencies!AD29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>Adjacencies!A30</f>
         <v>2215</v>
       </c>
-      <c r="B29">
-        <f>Distances!B29*Adjacencies!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <f>Distances!C29*Adjacencies!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f>Distances!D29*Adjacencies!D29</f>
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f>Distances!E29*Adjacencies!E29</f>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f>Distances!F29*Adjacencies!F29</f>
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f>Distances!G29*Adjacencies!G29</f>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f>Distances!H29*Adjacencies!H29</f>
+      <c r="B30">
+        <f>Distances!B29*Adjacencies!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f>Distances!C29*Adjacencies!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>Distances!D29*Adjacencies!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>Distances!E29*Adjacencies!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>Distances!F29*Adjacencies!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>Distances!G29*Adjacencies!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>Distances!H29*Adjacencies!H30</f>
         <v>0.90759130497246754</v>
       </c>
-      <c r="I29">
-        <f>Distances!I29*Adjacencies!I29</f>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f>Distances!J29*Adjacencies!J29</f>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f>Distances!K29*Adjacencies!K29</f>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f>Distances!L29*Adjacencies!L29</f>
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <f>Distances!M29*Adjacencies!M29</f>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f>Distances!N29*Adjacencies!N29</f>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f>Distances!O29*Adjacencies!O29</f>
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <f>Distances!P29*Adjacencies!P29</f>
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <f>Distances!Q29*Adjacencies!Q29</f>
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f>Distances!R29*Adjacencies!R29</f>
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <f>Distances!S29*Adjacencies!S29</f>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f>Distances!T29*Adjacencies!T29</f>
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f>Distances!U29*Adjacencies!U29</f>
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <f>Distances!V29*Adjacencies!V29</f>
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <f>Distances!W29*Adjacencies!W29</f>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f>Distances!X29*Adjacencies!X29</f>
+      <c r="I30">
+        <f>Distances!I29*Adjacencies!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>Distances!J29*Adjacencies!J30</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>Distances!K29*Adjacencies!K30</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>Distances!L29*Adjacencies!L30</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>Distances!M29*Adjacencies!M30</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>Distances!N29*Adjacencies!N30</f>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f>Distances!O29*Adjacencies!O30</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>Distances!P29*Adjacencies!P30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f>Distances!Q29*Adjacencies!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <f>Distances!R29*Adjacencies!R30</f>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f>Distances!S29*Adjacencies!S30</f>
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <f>Distances!T29*Adjacencies!T30</f>
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <f>Distances!U29*Adjacencies!U30</f>
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <f>Distances!V29*Adjacencies!V30</f>
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <f>Distances!W29*Adjacencies!W30</f>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f>Distances!X29*Adjacencies!X30</f>
         <v>2.6131979292027672</v>
       </c>
-      <c r="Y29">
-        <f>Distances!Y29*Adjacencies!Y29</f>
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <f>Distances!Z29*Adjacencies!Z29</f>
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <f>Distances!AA29*Adjacencies!AA29</f>
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <f>Distances!AB29*Adjacencies!AB29</f>
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <f>Distances!AC29*Adjacencies!AC29</f>
+      <c r="Y30">
+        <f>Distances!Y29*Adjacencies!Y30</f>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f>Distances!Z29*Adjacencies!Z30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <f>Distances!AA29*Adjacencies!AA30</f>
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <f>Distances!AB29*Adjacencies!AB30</f>
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <f>Distances!AC29*Adjacencies!AC30</f>
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <f>Distances!AD29*Adjacencies!AD30</f>
         <v>0</v>
       </c>
     </row>

--- a/CellTransmission/DISTANCEMATRIX.xlsx
+++ b/CellTransmission/DISTANCEMATRIX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arnav\Desktop\MAMS\MTFC_2026\CellTransmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55774A37-26A7-4066-B514-102D1F22F074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E810037-C6A6-405D-9811-A1724E45D1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Distances" sheetId="1" r:id="rId1"/>
@@ -180,11 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,18 +488,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AB5" sqref="AB5"/>
+      <selection pane="bottomRight" activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,20 +572,23 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="1">
+        <v>2136</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,20 +664,23 @@
       <c r="Y2">
         <v>7.3266721689655636</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="2">
+        <v>7.9359999999999999</v>
+      </c>
+      <c r="AA2">
         <v>1.7238551819958701</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>0.6822072111094476</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>2.2789072175487659</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>3.220181487800585</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -749,20 +756,23 @@
       <c r="Y3">
         <v>8.3695734621629114</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="2">
+        <v>8.423</v>
+      </c>
+      <c r="AA3">
         <v>2.9179131602388821</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.51242887089719813</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2.0894306212490799</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4.3755440457510666</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -838,20 +848,23 @@
       <c r="Y4">
         <v>8.3866276422713977</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="2">
+        <v>8.2759999999999998</v>
+      </c>
+      <c r="AA4">
         <v>2.696511169246453</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>0.59995864650578878</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1.539483216417876</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>4.2591475706717281</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -927,20 +940,23 @@
       <c r="Y5">
         <v>7.7894334940416936</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="AA5">
         <v>1.907863030720971</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1.163811110391578</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>1.5438110427922891</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>3.544542903929067</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1016,20 +1032,23 @@
       <c r="Y6">
         <v>8.2896710585469364</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="2">
+        <v>8.6539999999999999</v>
+      </c>
+      <c r="AA6">
         <v>2.966407383447383</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>0.60171604508579291</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2.351792351215753</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>4.3650914138470158</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1105,20 +1124,23 @@
       <c r="Y7">
         <v>7.3626562117222027</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="2">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="AA7">
         <v>2.177913338719637</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>0.6677891066884647</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>2.743934995419572</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>3.4668302386670988</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1194,20 +1216,23 @@
       <c r="Y8">
         <v>4.9700119535810119</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="2">
+        <v>6.4859999999999998</v>
+      </c>
+      <c r="AA8">
         <v>1.2944616070703141</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>3.7000693962788049</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>4.4914900425985023</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>0.90759130497246754</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1283,20 +1308,23 @@
       <c r="Y9">
         <v>6.5256229916321118</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="2">
+        <v>7.1710000000000003</v>
+      </c>
+      <c r="AA9">
         <v>0.68644569745950312</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>1.740548032072212</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>2.7901211122042682</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>2.29150869215393</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1372,20 +1400,23 @@
       <c r="Y10">
         <v>6.9662570964135471</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="2">
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="AA10">
         <v>1.4013561330075059</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>2.682087402576812</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>2.6459910585654618</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>2.7498887677436339</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1461,20 +1492,23 @@
       <c r="Y11">
         <v>6.3418701539735833</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="2">
+        <v>5.4379999999999997</v>
+      </c>
+      <c r="AA11">
         <v>2.6173186211859059</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>4.6030378916646413</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>4.4492120039618284</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>2.8799141513877622</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1550,20 +1584,23 @@
       <c r="Y12">
         <v>5.1037658629312936</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="2">
+        <v>5.7859999999999996</v>
+      </c>
+      <c r="AA12">
         <v>2.0852352702859962</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>4.4379612263482073</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>4.8790515329891049</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>1.683303784281414</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1639,20 +1676,23 @@
       <c r="Y13">
         <v>7.4245531155655371</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="2">
+        <v>4.585</v>
+      </c>
+      <c r="AA13">
         <v>4.6392186468801997</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>6.482993111208196</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>5.8957589025663566</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>4.7324647983973227</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1728,20 +1768,23 @@
       <c r="Y14">
         <v>11.05548673354162</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="2">
+        <v>5.0019999999999998</v>
+      </c>
+      <c r="AA14">
         <v>6.5051499148762746</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>7.0941210187301484</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>5.3976263907980124</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>7.4694353863457188</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1817,20 +1860,23 @@
       <c r="Y15">
         <v>9.853484415053277</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="2">
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="AA15">
         <v>6.9307765732839268</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>8.3944093031703773</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>7.2712914787614844</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>7.2454242470618269</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1906,20 +1952,23 @@
       <c r="Y16">
         <v>8.8942735525482259</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="2">
+        <v>5.7990000000000004</v>
+      </c>
+      <c r="AA16">
         <v>4.1163142842319038</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>4.9743684747775703</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3.6801959756894469</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>5.1086799423671794</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1995,20 +2044,23 @@
       <c r="Y17">
         <v>9.7052192914523427</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="2">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="AA17">
         <v>8.1803617101753954</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>10.012429273218251</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>9.1937672154043959</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>8.05858981484098</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2084,20 +2136,23 @@
       <c r="Y18">
         <v>9.5926085726035915</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="2">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="AA18">
         <v>3.8145795055335951</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>3.3096211103616651</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>1.386892181924823</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>5.3486802952533026</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2173,20 +2228,23 @@
       <c r="Y19">
         <v>11.590998507954749</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="2">
+        <v>9.7850000000000001</v>
+      </c>
+      <c r="AA19">
         <v>6.0905858719152626</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>3.7427587313736819</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>3.4944704879600978</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>7.6141389900892174</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2262,20 +2320,23 @@
       <c r="Y20">
         <v>8.1384680608719844</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="2">
+        <v>9.3030000000000008</v>
+      </c>
+      <c r="AA20">
         <v>3.8754552075688582</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>2.1324581497675421</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>4.0518361217222898</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>4.832205131696889</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2351,20 +2412,23 @@
       <c r="Y21">
         <v>5.5986663327483397</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="2">
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="AA21">
         <v>5.0747396903731499</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>7.3727980113194933</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>7.4167862773405098</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>4.3531056050122334</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2440,20 +2504,23 @@
       <c r="Y22">
         <v>7.676267545152065</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="2">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="AA22">
         <v>7.8473697941195546</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>10.061723662399221</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>9.8053733586094474</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>7.1858625087947638</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2529,20 +2596,23 @@
       <c r="Y23">
         <v>7.7893694876235919</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="AA23">
         <v>9.9484778099930988</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>12.31444405870521</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>12.413870968610929</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>8.8872341997208935</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2618,20 +2688,23 @@
       <c r="Y24">
         <v>2.1719578464240521</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="2">
+        <v>7.0339999999999998</v>
+      </c>
+      <c r="AA24">
         <v>4.1022062162205559</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>5.8517965093792981</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>7.4225932589391954</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>2.6131979292027672</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2707,372 +2780,479 @@
       <c r="Y25">
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="2">
+        <v>6.8929999999999998</v>
+      </c>
+      <c r="AA25">
         <v>5.910291488066183</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>7.9085774704375584</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>9.3002591731283193</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4.2791850164680714</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>2136</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7.9359999999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>8.423</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8.2759999999999998</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7.5640000000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>8.6539999999999999</v>
+      </c>
+      <c r="G26" s="2">
+        <v>8.1489999999999991</v>
+      </c>
+      <c r="H26" s="2">
+        <v>6.4859999999999998</v>
+      </c>
+      <c r="I26" s="2">
+        <v>7.1710000000000003</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="K26" s="2">
+        <v>5.4379999999999997</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5.7859999999999996</v>
+      </c>
+      <c r="M26" s="2">
+        <v>4.585</v>
+      </c>
+      <c r="N26" s="2">
+        <v>5.0019999999999998</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3.7530000000000001</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5.7990000000000004</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="R26" s="2">
+        <v>7.3940000000000001</v>
+      </c>
+      <c r="S26" s="2">
+        <v>9.7850000000000001</v>
+      </c>
+      <c r="T26" s="2">
+        <v>9.3030000000000008</v>
+      </c>
+      <c r="U26" s="2">
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="V26" s="2">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="W26" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="X26" s="2">
+        <v>7.0339999999999998</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>6.8929999999999998</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>6.9341665969781046</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>8.2045583918269465</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>7.9904359834965444</v>
+      </c>
+      <c r="AD26" s="2">
+        <v>6.7525823750512126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>1.7238551819958701</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>2.9179131602388821</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>2.696511169246453</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>1.907863030720971</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>2.966407383447383</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>2.177913338719637</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>1.2944616070703141</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>0.68644569745950312</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>1.4013561330075059</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>2.6173186211859059</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>2.0852352702859962</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>4.6392186468801997</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>6.5051499148762746</v>
       </c>
-      <c r="O26">
+      <c r="O27">
         <v>6.9307765732839268</v>
       </c>
-      <c r="P26">
+      <c r="P27">
         <v>4.1163142842319038</v>
       </c>
-      <c r="Q26">
+      <c r="Q27">
         <v>8.1803617101753954</v>
       </c>
-      <c r="R26">
+      <c r="R27">
         <v>3.8145795055335951</v>
       </c>
-      <c r="S26">
+      <c r="S27">
         <v>6.0905858719152626</v>
       </c>
-      <c r="T26">
+      <c r="T27">
         <v>3.8754552075688582</v>
       </c>
-      <c r="U26">
+      <c r="U27">
         <v>5.0747396903731499</v>
       </c>
-      <c r="V26">
+      <c r="V27">
         <v>7.8473697941195546</v>
       </c>
-      <c r="W26">
+      <c r="W27">
         <v>9.9484778099930988</v>
       </c>
-      <c r="X26">
+      <c r="X27">
         <v>4.1022062162205559</v>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <v>5.910291488066183</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
+      <c r="Z27" s="2">
+        <v>6.9341665969781046</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
         <v>2.405724676278306</v>
       </c>
-      <c r="AB26">
+      <c r="AC27">
         <v>3.3910054193469601</v>
       </c>
-      <c r="AC26">
+      <c r="AD27">
         <v>1.641464078882253</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>0.6822072111094476</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>0.51242887089719813</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>0.59995864650578878</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>1.163811110391578</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <v>0.60171604508579291</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>0.6677891066884647</v>
       </c>
-      <c r="H27">
+      <c r="H28">
         <v>3.7000693962788049</v>
       </c>
-      <c r="I27">
+      <c r="I28">
         <v>1.740548032072212</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>2.682087402576812</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>4.6030378916646413</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>4.4379612263482073</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>6.482993111208196</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>7.0941210187301484</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>8.3944093031703773</v>
       </c>
-      <c r="P27">
+      <c r="P28">
         <v>4.9743684747775703</v>
       </c>
-      <c r="Q27">
+      <c r="Q28">
         <v>10.012429273218251</v>
       </c>
-      <c r="R27">
+      <c r="R28">
         <v>3.3096211103616651</v>
       </c>
-      <c r="S27">
+      <c r="S28">
         <v>3.7427587313736819</v>
       </c>
-      <c r="T27">
+      <c r="T28">
         <v>2.1324581497675421</v>
       </c>
-      <c r="U27">
+      <c r="U28">
         <v>7.3727980113194933</v>
       </c>
-      <c r="V27">
+      <c r="V28">
         <v>10.061723662399221</v>
       </c>
-      <c r="W27">
+      <c r="W28">
         <v>12.31444405870521</v>
       </c>
-      <c r="X27">
+      <c r="X28">
         <v>5.8517965093792981</v>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <v>7.9085774704375584</v>
       </c>
-      <c r="Z27">
+      <c r="Z28" s="2">
+        <v>8.2045583918269465</v>
+      </c>
+      <c r="AA28">
         <v>2.405724676278306</v>
       </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
         <v>2.1083254975403709</v>
       </c>
-      <c r="AC27">
+      <c r="AD28">
         <v>3.8728813289842638</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>2.2789072175487659</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>2.0894306212490799</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>1.539483216417876</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>1.5438110427922891</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <v>2.351792351215753</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>2.743934995419572</v>
       </c>
-      <c r="H28">
+      <c r="H29">
         <v>4.4914900425985023</v>
       </c>
-      <c r="I28">
+      <c r="I29">
         <v>2.7901211122042682</v>
       </c>
-      <c r="J28">
+      <c r="J29">
         <v>2.6459910585654618</v>
       </c>
-      <c r="K28">
+      <c r="K29">
         <v>4.4492120039618284</v>
       </c>
-      <c r="L28">
+      <c r="L29">
         <v>4.8790515329891049</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>5.8957589025663566</v>
       </c>
-      <c r="N28">
+      <c r="N29">
         <v>5.3976263907980124</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>7.2712914787614844</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>3.6801959756894469</v>
       </c>
-      <c r="Q28">
+      <c r="Q29">
         <v>9.1937672154043959</v>
       </c>
-      <c r="R28">
+      <c r="R29">
         <v>1.386892181924823</v>
       </c>
-      <c r="S28">
+      <c r="S29">
         <v>3.4944704879600978</v>
       </c>
-      <c r="T28">
+      <c r="T29">
         <v>4.0518361217222898</v>
       </c>
-      <c r="U28">
+      <c r="U29">
         <v>7.4167862773405098</v>
       </c>
-      <c r="V28">
+      <c r="V29">
         <v>9.8053733586094474</v>
       </c>
-      <c r="W28">
+      <c r="W29">
         <v>12.413870968610929</v>
       </c>
-      <c r="X28">
+      <c r="X29">
         <v>7.4225932589391954</v>
       </c>
-      <c r="Y28">
+      <c r="Y29">
         <v>9.3002591731283193</v>
       </c>
-      <c r="Z28">
+      <c r="Z29" s="2">
+        <v>7.9904359834965444</v>
+      </c>
+      <c r="AA29">
         <v>3.3910054193469601</v>
       </c>
-      <c r="AA28">
+      <c r="AB29">
         <v>2.1083254975403709</v>
       </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
         <v>5.0301668264542041</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>3.220181487800585</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>4.3755440457510666</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>4.2591475706717281</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>3.544542903929067</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>4.3650914138470158</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>3.4668302386670988</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>0.90759130497246754</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>2.29150869215393</v>
       </c>
-      <c r="J29">
+      <c r="J30">
         <v>2.7498887677436339</v>
       </c>
-      <c r="K29">
+      <c r="K30">
         <v>2.8799141513877622</v>
       </c>
-      <c r="L29">
+      <c r="L30">
         <v>1.683303784281414</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>4.7324647983973227</v>
       </c>
-      <c r="N29">
+      <c r="N30">
         <v>7.4694353863457188</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>7.2454242470618269</v>
       </c>
-      <c r="P29">
+      <c r="P30">
         <v>5.1086799423671794</v>
       </c>
-      <c r="Q29">
+      <c r="Q30">
         <v>8.05858981484098</v>
       </c>
-      <c r="R29">
+      <c r="R30">
         <v>5.3486802952533026</v>
       </c>
-      <c r="S29">
+      <c r="S30">
         <v>7.6141389900892174</v>
       </c>
-      <c r="T29">
+      <c r="T30">
         <v>4.832205131696889</v>
       </c>
-      <c r="U29">
+      <c r="U30">
         <v>4.3531056050122334</v>
       </c>
-      <c r="V29">
+      <c r="V30">
         <v>7.1858625087947638</v>
       </c>
-      <c r="W29">
+      <c r="W30">
         <v>8.8872341997208935</v>
       </c>
-      <c r="X29">
+      <c r="X30">
         <v>2.6131979292027672</v>
       </c>
-      <c r="Y29">
+      <c r="Y30">
         <v>4.2791850164680714</v>
       </c>
-      <c r="Z29">
+      <c r="Z30" s="2">
+        <v>6.7525823750512126</v>
+      </c>
+      <c r="AA30">
         <v>1.641464078882253</v>
       </c>
-      <c r="AA29">
+      <c r="AB30">
         <v>3.8728813289842638</v>
       </c>
-      <c r="AB29">
+      <c r="AC30">
         <v>5.0301668264542041</v>
       </c>
-      <c r="AC29">
+      <c r="AD30">
         <v>0</v>
       </c>
     </row>
@@ -3085,8 +3265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDCC5AD-9036-49CA-97FA-721470AA7004}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5192,7 +5372,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -5394,6 +5574,93 @@
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2136</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
@@ -5773,8 +6040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8F5651B-BE0E-4962-9469-32385FB48059}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="77" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5919,115 +6186,115 @@
         <f>Distances!B2*Adjacencies!B2</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <f>Distances!C2*Adjacencies!C2</f>
         <v>1.194102859193134</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>Distances!D2*Adjacencies!D2</f>
         <v>1.060104308664624</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>Distances!E2*Adjacencies!E2</f>
         <v>0.89113650070431749</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <f>Distances!F2*Adjacencies!F2</f>
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <f>Distances!G2*Adjacencies!G2</f>
         <v>0.7144409779380041</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>Distances!H2*Adjacencies!H2</f>
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <f>Distances!I2*Adjacencies!I2</f>
         <v>1.0601136528939989</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <f>Distances!J2*Adjacencies!J2</f>
         <v>0</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <f>Distances!K2*Adjacencies!K2</f>
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <f>Distances!L2*Adjacencies!L2</f>
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="2">
         <f>Distances!M2*Adjacencies!M2</f>
         <v>0</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <f>Distances!N2*Adjacencies!N2</f>
         <v>0</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="2">
         <f>Distances!O2*Adjacencies!O2</f>
         <v>0</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="2">
         <f>Distances!P2*Adjacencies!P2</f>
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="2">
         <f>Distances!Q2*Adjacencies!Q2</f>
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="2">
         <f>Distances!R2*Adjacencies!R2</f>
         <v>0</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="2">
         <f>Distances!S2*Adjacencies!S2</f>
         <v>0</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <f>Distances!T2*Adjacencies!T2</f>
         <v>0</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <f>Distances!U2*Adjacencies!U2</f>
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="2">
         <f>Distances!V2*Adjacencies!V2</f>
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="2">
         <f>Distances!W2*Adjacencies!W2</f>
         <v>0</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="2">
         <f>Distances!X2*Adjacencies!X2</f>
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="2">
         <f>Distances!Y2*Adjacencies!Y2</f>
         <v>0</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="2">
         <f>Distances!Z2*Adjacencies!Z2</f>
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="2">
         <f>Distances!AA2*Adjacencies!AA2</f>
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="2">
         <f>Distances!AB2*Adjacencies!AB2</f>
-        <v>2.2789072175487659</v>
-      </c>
-      <c r="AC2">
+        <v>0.6822072111094476</v>
+      </c>
+      <c r="AC2" s="2">
         <f>Distances!AC2*Adjacencies!AC2</f>
         <v>0</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="2">
         <f>Distances!AD2*Adjacencies!AD2</f>
         <v>0</v>
       </c>
@@ -6037,119 +6304,119 @@
         <f>Adjacencies!A3</f>
         <v>2109</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>Distances!B3*Adjacencies!B3</f>
         <v>1.194102859193134</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <f>Distances!C3*Adjacencies!C3</f>
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>Distances!D3*Adjacencies!D3</f>
         <v>0.60349932165578579</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <f>Distances!E3*Adjacencies!E3</f>
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f>Distances!F3*Adjacencies!F3</f>
         <v>0.26245514162226308</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <f>Distances!G3*Adjacencies!G3</f>
         <v>0</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>Distances!H3*Adjacencies!H3</f>
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <f>Distances!I3*Adjacencies!I3</f>
         <v>0</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <f>Distances!J3*Adjacencies!J3</f>
         <v>0</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <f>Distances!K3*Adjacencies!K3</f>
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <f>Distances!L3*Adjacencies!L3</f>
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="2">
         <f>Distances!M3*Adjacencies!M3</f>
         <v>0</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="2">
         <f>Distances!N3*Adjacencies!N3</f>
         <v>0</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <f>Distances!O3*Adjacencies!O3</f>
         <v>0</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="2">
         <f>Distances!P3*Adjacencies!P3</f>
         <v>0</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <f>Distances!Q3*Adjacencies!Q3</f>
         <v>0</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="2">
         <f>Distances!R3*Adjacencies!R3</f>
         <v>0</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="2">
         <f>Distances!S3*Adjacencies!S3</f>
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="2">
         <f>Distances!T3*Adjacencies!T3</f>
         <v>0</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <f>Distances!U3*Adjacencies!U3</f>
         <v>0</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="2">
         <f>Distances!V3*Adjacencies!V3</f>
         <v>0</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="2">
         <f>Distances!W3*Adjacencies!W3</f>
         <v>0</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="2">
         <f>Distances!X3*Adjacencies!X3</f>
         <v>0</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="2">
         <f>Distances!Y3*Adjacencies!Y3</f>
         <v>0</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="2">
         <f>Distances!Z3*Adjacencies!Z3</f>
         <v>0</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="2">
         <f>Distances!AA3*Adjacencies!AA3</f>
         <v>0</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="2">
         <f>Distances!AB3*Adjacencies!AB3</f>
-        <v>2.0894306212490799</v>
-      </c>
-      <c r="AC3">
+        <v>0.51242887089719813</v>
+      </c>
+      <c r="AC3" s="2">
         <f>Distances!AC3*Adjacencies!AC3</f>
         <v>0</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="2">
         <f>Distances!AD3*Adjacencies!AD3</f>
         <v>0</v>
       </c>
@@ -6159,119 +6426,119 @@
         <f>Adjacencies!A4</f>
         <v>2110</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>Distances!B4*Adjacencies!B4</f>
         <v>1.060104308664624</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>Distances!C4*Adjacencies!C4</f>
         <v>0.60349932165578579</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f>Distances!D4*Adjacencies!D4</f>
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <f>Distances!E4*Adjacencies!E4</f>
         <v>1.025019777491273</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f>Distances!F4*Adjacencies!F4</f>
         <v>0.85590251549494778</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <f>Distances!G4*Adjacencies!G4</f>
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>Distances!H4*Adjacencies!H4</f>
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f>Distances!I4*Adjacencies!I4</f>
         <v>0</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f>Distances!J4*Adjacencies!J4</f>
         <v>0</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <f>Distances!K4*Adjacencies!K4</f>
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f>Distances!L4*Adjacencies!L4</f>
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <f>Distances!M4*Adjacencies!M4</f>
         <v>0</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <f>Distances!N4*Adjacencies!N4</f>
         <v>0</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <f>Distances!O4*Adjacencies!O4</f>
         <v>0</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <f>Distances!P4*Adjacencies!P4</f>
         <v>0</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <f>Distances!Q4*Adjacencies!Q4</f>
         <v>0</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <f>Distances!R4*Adjacencies!R4</f>
         <v>2.811209001308312</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <f>Distances!S4*Adjacencies!S4</f>
         <v>3.3970164294594198</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <f>Distances!T4*Adjacencies!T4</f>
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <f>Distances!U4*Adjacencies!U4</f>
         <v>0</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <f>Distances!V4*Adjacencies!V4</f>
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="2">
         <f>Distances!W4*Adjacencies!W4</f>
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="2">
         <f>Distances!X4*Adjacencies!X4</f>
         <v>0</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="2">
         <f>Distances!Y4*Adjacencies!Y4</f>
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="2">
         <f>Distances!Z4*Adjacencies!Z4</f>
         <v>0</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="2">
         <f>Distances!AA4*Adjacencies!AA4</f>
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="2">
         <f>Distances!AB4*Adjacencies!AB4</f>
         <v>0</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="2">
         <f>Distances!AC4*Adjacencies!AC4</f>
         <v>0</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="2">
         <f>Distances!AD4*Adjacencies!AD4</f>
         <v>0</v>
       </c>
@@ -6281,119 +6548,119 @@
         <f>Adjacencies!A5</f>
         <v>2111</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>Distances!B5*Adjacencies!B5</f>
         <v>0.89113650070431749</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f>Distances!C5*Adjacencies!C5</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f>Distances!D5*Adjacencies!D5</f>
         <v>1.025019777491273</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <f>Distances!E5*Adjacencies!E5</f>
         <v>0</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f>Distances!F5*Adjacencies!F5</f>
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <f>Distances!G5*Adjacencies!G5</f>
         <v>0</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>Distances!H5*Adjacencies!H5</f>
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f>Distances!I5*Adjacencies!I5</f>
         <v>1.2638135096843639</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f>Distances!J5*Adjacencies!J5</f>
         <v>1.6365438943767061</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <f>Distances!K5*Adjacencies!K5</f>
         <v>0</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f>Distances!L5*Adjacencies!L5</f>
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <f>Distances!M5*Adjacencies!M5</f>
         <v>0</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <f>Distances!N5*Adjacencies!N5</f>
         <v>0</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <f>Distances!O5*Adjacencies!O5</f>
         <v>0</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <f>Distances!P5*Adjacencies!P5</f>
         <v>0</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <f>Distances!Q5*Adjacencies!Q5</f>
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="2">
         <f>Distances!R5*Adjacencies!R5</f>
         <v>2.3856812989190979</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <f>Distances!S5*Adjacencies!S5</f>
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="2">
         <f>Distances!T5*Adjacencies!T5</f>
         <v>0</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <f>Distances!U5*Adjacencies!U5</f>
         <v>0</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="2">
         <f>Distances!V5*Adjacencies!V5</f>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="2">
         <f>Distances!W5*Adjacencies!W5</f>
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="2">
         <f>Distances!X5*Adjacencies!X5</f>
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="2">
         <f>Distances!Y5*Adjacencies!Y5</f>
         <v>0</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="2">
         <f>Distances!Z5*Adjacencies!Z5</f>
         <v>0</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="2">
         <f>Distances!AA5*Adjacencies!AA5</f>
         <v>0</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="2">
         <f>Distances!AB5*Adjacencies!AB5</f>
         <v>0</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="2">
         <f>Distances!AC5*Adjacencies!AC5</f>
         <v>0</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="2">
         <f>Distances!AD5*Adjacencies!AD5</f>
         <v>0</v>
       </c>
@@ -6403,119 +6670,119 @@
         <f>Adjacencies!A6</f>
         <v>2113</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f>Distances!B6*Adjacencies!B6</f>
         <v>0</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f>Distances!C6*Adjacencies!C6</f>
         <v>0.26245514162226308</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f>Distances!D6*Adjacencies!D6</f>
         <v>0</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <f>Distances!E6*Adjacencies!E6</f>
         <v>1.7199927126912009</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f>Distances!F6*Adjacencies!F6</f>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <f>Distances!G6*Adjacencies!G6</f>
         <v>0.92867833892882157</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>Distances!H6*Adjacencies!H6</f>
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f>Distances!I6*Adjacencies!I6</f>
         <v>0</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f>Distances!J6*Adjacencies!J6</f>
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f>Distances!K6*Adjacencies!K6</f>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f>Distances!L6*Adjacencies!L6</f>
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <f>Distances!M6*Adjacencies!M6</f>
         <v>0</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <f>Distances!N6*Adjacencies!N6</f>
         <v>0</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <f>Distances!O6*Adjacencies!O6</f>
         <v>0</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <f>Distances!P6*Adjacencies!P6</f>
         <v>0</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <f>Distances!Q6*Adjacencies!Q6</f>
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="2">
         <f>Distances!R6*Adjacencies!R6</f>
         <v>0</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <f>Distances!S6*Adjacencies!S6</f>
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="2">
         <f>Distances!T6*Adjacencies!T6</f>
         <v>1.7080886044074259</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <f>Distances!U6*Adjacencies!U6</f>
         <v>0</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="2">
         <f>Distances!V6*Adjacencies!V6</f>
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="2">
         <f>Distances!W6*Adjacencies!W6</f>
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="2">
         <f>Distances!X6*Adjacencies!X6</f>
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="2">
         <f>Distances!Y6*Adjacencies!Y6</f>
         <v>0</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="2">
         <f>Distances!Z6*Adjacencies!Z6</f>
         <v>0</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="2">
         <f>Distances!AA6*Adjacencies!AA6</f>
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="2">
         <f>Distances!AB6*Adjacencies!AB6</f>
         <v>0</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="2">
         <f>Distances!AC6*Adjacencies!AC6</f>
         <v>0</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="2">
         <f>Distances!AD6*Adjacencies!AD6</f>
         <v>0</v>
       </c>
@@ -6525,119 +6792,119 @@
         <f>Adjacencies!A7</f>
         <v>2114</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f>Distances!B7*Adjacencies!B7</f>
         <v>0.7144409779380041</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f>Distances!C7*Adjacencies!C7</f>
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f>Distances!D7*Adjacencies!D7</f>
         <v>0</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <f>Distances!E7*Adjacencies!E7</f>
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f>Distances!F7*Adjacencies!F7</f>
         <v>0.92867833892882157</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <f>Distances!G7*Adjacencies!G7</f>
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>Distances!H7*Adjacencies!H7</f>
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <f>Distances!I7*Adjacencies!I7</f>
         <v>0</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f>Distances!J7*Adjacencies!J7</f>
         <v>0</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f>Distances!K7*Adjacencies!K7</f>
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f>Distances!L7*Adjacencies!L7</f>
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f>Distances!M7*Adjacencies!M7</f>
         <v>0</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <f>Distances!N7*Adjacencies!N7</f>
         <v>0</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <f>Distances!O7*Adjacencies!O7</f>
         <v>0</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <f>Distances!P7*Adjacencies!P7</f>
         <v>0</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <f>Distances!Q7*Adjacencies!Q7</f>
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="2">
         <f>Distances!R7*Adjacencies!R7</f>
         <v>0</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <f>Distances!S7*Adjacencies!S7</f>
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="2">
         <f>Distances!T7*Adjacencies!T7</f>
         <v>0</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <f>Distances!U7*Adjacencies!U7</f>
         <v>0</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="2">
         <f>Distances!V7*Adjacencies!V7</f>
         <v>0</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="2">
         <f>Distances!W7*Adjacencies!W7</f>
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="2">
         <f>Distances!X7*Adjacencies!X7</f>
         <v>0</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="2">
         <f>Distances!Y7*Adjacencies!Y7</f>
         <v>0</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="2">
         <f>Distances!Z7*Adjacencies!Z7</f>
         <v>0</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="2">
         <f>Distances!AA7*Adjacencies!AA7</f>
         <v>0</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="2">
         <f>Distances!AB7*Adjacencies!AB7</f>
-        <v>2.743934995419572</v>
-      </c>
-      <c r="AC7">
+        <v>0.6677891066884647</v>
+      </c>
+      <c r="AC7" s="2">
         <f>Distances!AC7*Adjacencies!AC7</f>
         <v>0</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="2">
         <f>Distances!AD7*Adjacencies!AD7</f>
         <v>0</v>
       </c>
@@ -6647,121 +6914,121 @@
         <f>Adjacencies!A8</f>
         <v>2115</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f>Distances!B8*Adjacencies!B8</f>
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f>Distances!C8*Adjacencies!C8</f>
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f>Distances!D8*Adjacencies!D8</f>
         <v>0</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <f>Distances!E8*Adjacencies!E8</f>
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f>Distances!F8*Adjacencies!F8</f>
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <f>Distances!G8*Adjacencies!G8</f>
         <v>0</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>Distances!H8*Adjacencies!H8</f>
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <f>Distances!I8*Adjacencies!I8</f>
         <v>1.9724031263773829</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f>Distances!J8*Adjacencies!J8</f>
         <v>1.9999345671774971</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <f>Distances!K8*Adjacencies!K8</f>
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f>Distances!L8*Adjacencies!L8</f>
         <v>0.952875416307151</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <f>Distances!M8*Adjacencies!M8</f>
         <v>0</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <f>Distances!N8*Adjacencies!N8</f>
         <v>0</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <f>Distances!O8*Adjacencies!O8</f>
         <v>0</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <f>Distances!P8*Adjacencies!P8</f>
         <v>0</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <f>Distances!Q8*Adjacencies!Q8</f>
         <v>0</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="2">
         <f>Distances!R8*Adjacencies!R8</f>
         <v>0</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <f>Distances!S8*Adjacencies!S8</f>
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="2">
         <f>Distances!T8*Adjacencies!T8</f>
         <v>0</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <f>Distances!U8*Adjacencies!U8</f>
         <v>3.902644454426774</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="2">
         <f>Distances!V8*Adjacencies!V8</f>
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="2">
         <f>Distances!W8*Adjacencies!W8</f>
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="2">
         <f>Distances!X8*Adjacencies!X8</f>
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="2">
         <f>Distances!Y8*Adjacencies!Y8</f>
         <v>0</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="2">
         <f>Distances!Z8*Adjacencies!Z8</f>
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="2">
         <f>Distances!AA8*Adjacencies!AA8</f>
-        <v>3.7000693962788049</v>
-      </c>
-      <c r="AB8">
+        <v>1.2944616070703141</v>
+      </c>
+      <c r="AB8" s="2">
         <f>Distances!AB8*Adjacencies!AB8</f>
         <v>0</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="2">
         <f>Distances!AC8*Adjacencies!AC8</f>
         <v>0</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="2">
         <f>Distances!AD8*Adjacencies!AD8</f>
-        <v>0</v>
+        <v>0.90759130497246754</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.3">
@@ -6769,119 +7036,119 @@
         <f>Adjacencies!A9</f>
         <v>2116</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <f>Distances!B9*Adjacencies!B9</f>
         <v>1.0601136528939989</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <f>Distances!C9*Adjacencies!C9</f>
         <v>0</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <f>Distances!D9*Adjacencies!D9</f>
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <f>Distances!E9*Adjacencies!E9</f>
         <v>1.2638135096843639</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <f>Distances!F9*Adjacencies!F9</f>
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <f>Distances!G9*Adjacencies!G9</f>
         <v>0</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <f>Distances!H9*Adjacencies!H9</f>
         <v>1.9724031263773829</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f>Distances!I9*Adjacencies!I9</f>
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="2">
         <f>Distances!J9*Adjacencies!J9</f>
         <v>1.3700151141212209</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="2">
         <f>Distances!K9*Adjacencies!K9</f>
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <f>Distances!L9*Adjacencies!L9</f>
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <f>Distances!M9*Adjacencies!M9</f>
         <v>0</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="2">
         <f>Distances!N9*Adjacencies!N9</f>
         <v>0</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="2">
         <f>Distances!O9*Adjacencies!O9</f>
         <v>0</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="2">
         <f>Distances!P9*Adjacencies!P9</f>
         <v>0</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="2">
         <f>Distances!Q9*Adjacencies!Q9</f>
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="2">
         <f>Distances!R9*Adjacencies!R9</f>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="2">
         <f>Distances!S9*Adjacencies!S9</f>
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="2">
         <f>Distances!T9*Adjacencies!T9</f>
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <f>Distances!U9*Adjacencies!U9</f>
         <v>0</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="2">
         <f>Distances!V9*Adjacencies!V9</f>
         <v>0</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="2">
         <f>Distances!W9*Adjacencies!W9</f>
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="2">
         <f>Distances!X9*Adjacencies!X9</f>
         <v>0</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="2">
         <f>Distances!Y9*Adjacencies!Y9</f>
         <v>0</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="2">
         <f>Distances!Z9*Adjacencies!Z9</f>
         <v>0</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="2">
         <f>Distances!AA9*Adjacencies!AA9</f>
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="2">
         <f>Distances!AB9*Adjacencies!AB9</f>
         <v>0</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="2">
         <f>Distances!AC9*Adjacencies!AC9</f>
         <v>0</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="2">
         <f>Distances!AD9*Adjacencies!AD9</f>
         <v>0</v>
       </c>
@@ -6891,119 +7158,119 @@
         <f>Adjacencies!A10</f>
         <v>2118</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f>Distances!B10*Adjacencies!B10</f>
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <f>Distances!C10*Adjacencies!C10</f>
         <v>0</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f>Distances!D10*Adjacencies!D10</f>
         <v>0</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <f>Distances!E10*Adjacencies!E10</f>
         <v>1.6365438943767061</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f>Distances!F10*Adjacencies!F10</f>
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <f>Distances!G10*Adjacencies!G10</f>
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f>Distances!H10*Adjacencies!H10</f>
         <v>1.9999345671774971</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f>Distances!I10*Adjacencies!I10</f>
         <v>1.3700151141212209</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f>Distances!J10*Adjacencies!J10</f>
         <v>0</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="2">
         <f>Distances!K10*Adjacencies!K10</f>
         <v>1.9644097891308381</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f>Distances!L10*Adjacencies!L10</f>
         <v>2.2371834053027011</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <f>Distances!M10*Adjacencies!M10</f>
         <v>0</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="2">
         <f>Distances!N10*Adjacencies!N10</f>
         <v>0</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="2">
         <f>Distances!O10*Adjacencies!O10</f>
         <v>0</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="2">
         <f>Distances!P10*Adjacencies!P10</f>
         <v>2.7508257353477941</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="2">
         <f>Distances!Q10*Adjacencies!Q10</f>
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="2">
         <f>Distances!R10*Adjacencies!R10</f>
         <v>2.6279915477331102</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="2">
         <f>Distances!S10*Adjacencies!S10</f>
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="2">
         <f>Distances!T10*Adjacencies!T10</f>
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="2">
         <f>Distances!U10*Adjacencies!U10</f>
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="2">
         <f>Distances!V10*Adjacencies!V10</f>
         <v>0</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="2">
         <f>Distances!W10*Adjacencies!W10</f>
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="2">
         <f>Distances!X10*Adjacencies!X10</f>
         <v>0</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="2">
         <f>Distances!Y10*Adjacencies!Y10</f>
         <v>0</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="2">
         <f>Distances!Z10*Adjacencies!Z10</f>
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="2">
         <f>Distances!AA10*Adjacencies!AA10</f>
         <v>0</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="2">
         <f>Distances!AB10*Adjacencies!AB10</f>
         <v>0</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="2">
         <f>Distances!AC10*Adjacencies!AC10</f>
         <v>0</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="2">
         <f>Distances!AD10*Adjacencies!AD10</f>
         <v>0</v>
       </c>
@@ -7013,119 +7280,119 @@
         <f>Adjacencies!A11</f>
         <v>2119</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <f>Distances!B11*Adjacencies!B11</f>
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <f>Distances!C11*Adjacencies!C11</f>
         <v>0</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <f>Distances!D11*Adjacencies!D11</f>
         <v>0</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <f>Distances!E11*Adjacencies!E11</f>
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f>Distances!F11*Adjacencies!F11</f>
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <f>Distances!G11*Adjacencies!G11</f>
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f>Distances!H11*Adjacencies!H11</f>
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f>Distances!I11*Adjacencies!I11</f>
         <v>0</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="2">
         <f>Distances!J11*Adjacencies!J11</f>
         <v>1.9644097891308381</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="2">
         <f>Distances!K11*Adjacencies!K11</f>
         <v>0</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f>Distances!L11*Adjacencies!L11</f>
         <v>1.305711996296685</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <f>Distances!M11*Adjacencies!M11</f>
         <v>2.023971732851948</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="2">
         <f>Distances!N11*Adjacencies!N11</f>
         <v>0</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <f>Distances!O11*Adjacencies!O11</f>
         <v>0</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="2">
         <f>Distances!P11*Adjacencies!P11</f>
         <v>2.5631547264442931</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="2">
         <f>Distances!Q11*Adjacencies!Q11</f>
         <v>0</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="2">
         <f>Distances!R11*Adjacencies!R11</f>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="2">
         <f>Distances!S11*Adjacencies!S11</f>
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="2">
         <f>Distances!T11*Adjacencies!T11</f>
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <f>Distances!U11*Adjacencies!U11</f>
         <v>2.9675745603786128</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="2">
         <f>Distances!V11*Adjacencies!V11</f>
         <v>0</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="2">
         <f>Distances!W11*Adjacencies!W11</f>
         <v>0</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="2">
         <f>Distances!X11*Adjacencies!X11</f>
         <v>0</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="2">
         <f>Distances!Y11*Adjacencies!Y11</f>
         <v>0</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="2">
         <f>Distances!Z11*Adjacencies!Z11</f>
         <v>0</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="2">
         <f>Distances!AA11*Adjacencies!AA11</f>
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="2">
         <f>Distances!AB11*Adjacencies!AB11</f>
         <v>0</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="2">
         <f>Distances!AC11*Adjacencies!AC11</f>
         <v>0</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="2">
         <f>Distances!AD11*Adjacencies!AD11</f>
         <v>0</v>
       </c>
@@ -7135,119 +7402,119 @@
         <f>Adjacencies!A12</f>
         <v>2120</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <f>Distances!B12*Adjacencies!B12</f>
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <f>Distances!C12*Adjacencies!C12</f>
         <v>0</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <f>Distances!D12*Adjacencies!D12</f>
         <v>0</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <f>Distances!E12*Adjacencies!E12</f>
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f>Distances!F12*Adjacencies!F12</f>
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <f>Distances!G12*Adjacencies!G12</f>
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f>Distances!H12*Adjacencies!H12</f>
         <v>0.952875416307151</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f>Distances!I12*Adjacencies!I12</f>
         <v>0</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="2">
         <f>Distances!J12*Adjacencies!J12</f>
         <v>2.2371834053027011</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="2">
         <f>Distances!K12*Adjacencies!K12</f>
         <v>1.305711996296685</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <f>Distances!L12*Adjacencies!L12</f>
         <v>0</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <f>Distances!M12*Adjacencies!M12</f>
         <v>0</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="2">
         <f>Distances!N12*Adjacencies!N12</f>
         <v>0</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="2">
         <f>Distances!O12*Adjacencies!O12</f>
         <v>0</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="2">
         <f>Distances!P12*Adjacencies!P12</f>
         <v>0</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="2">
         <f>Distances!Q12*Adjacencies!Q12</f>
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="2">
         <f>Distances!R12*Adjacencies!R12</f>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="2">
         <f>Distances!S12*Adjacencies!S12</f>
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="2">
         <f>Distances!T12*Adjacencies!T12</f>
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="2">
         <f>Distances!U12*Adjacencies!U12</f>
         <v>2.994964441941562</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="2">
         <f>Distances!V12*Adjacencies!V12</f>
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="2">
         <f>Distances!W12*Adjacencies!W12</f>
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="2">
         <f>Distances!X12*Adjacencies!X12</f>
         <v>0</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="2">
         <f>Distances!Y12*Adjacencies!Y12</f>
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="2">
         <f>Distances!Z12*Adjacencies!Z12</f>
         <v>0</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="2">
         <f>Distances!AA12*Adjacencies!AA12</f>
         <v>0</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="2">
         <f>Distances!AB12*Adjacencies!AB12</f>
         <v>0</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="2">
         <f>Distances!AC12*Adjacencies!AC12</f>
         <v>0</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="2">
         <f>Distances!AD12*Adjacencies!AD12</f>
         <v>0</v>
       </c>
@@ -7257,119 +7524,119 @@
         <f>Adjacencies!A13</f>
         <v>2121</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <f>Distances!B13*Adjacencies!B13</f>
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f>Distances!C13*Adjacencies!C13</f>
         <v>0</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <f>Distances!D13*Adjacencies!D13</f>
         <v>0</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <f>Distances!E13*Adjacencies!E13</f>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f>Distances!F13*Adjacencies!F13</f>
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <f>Distances!G13*Adjacencies!G13</f>
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f>Distances!H13*Adjacencies!H13</f>
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f>Distances!I13*Adjacencies!I13</f>
         <v>0</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="2">
         <f>Distances!J13*Adjacencies!J13</f>
         <v>0</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f>Distances!K13*Adjacencies!K13</f>
         <v>2.023971732851948</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <f>Distances!L13*Adjacencies!L13</f>
         <v>0</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="2">
         <f>Distances!M13*Adjacencies!M13</f>
         <v>0</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <f>Distances!N13*Adjacencies!N13</f>
         <v>3.9690338177918552</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <f>Distances!O13*Adjacencies!O13</f>
         <v>2.5498205271964949</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <f>Distances!P13*Adjacencies!P13</f>
         <v>2.7098462038733442</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="2">
         <f>Distances!Q13*Adjacencies!Q13</f>
         <v>3.5573299072667859</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="2">
         <f>Distances!R13*Adjacencies!R13</f>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="2">
         <f>Distances!S13*Adjacencies!S13</f>
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="2">
         <f>Distances!T13*Adjacencies!T13</f>
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="2">
         <f>Distances!U13*Adjacencies!U13</f>
         <v>2.3789808824901471</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="2">
         <f>Distances!V13*Adjacencies!V13</f>
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="2">
         <f>Distances!W13*Adjacencies!W13</f>
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="2">
         <f>Distances!X13*Adjacencies!X13</f>
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="2">
         <f>Distances!Y13*Adjacencies!Y13</f>
         <v>0</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="2">
         <f>Distances!Z13*Adjacencies!Z13</f>
         <v>0</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="2">
         <f>Distances!AA13*Adjacencies!AA13</f>
         <v>0</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="2">
         <f>Distances!AB13*Adjacencies!AB13</f>
         <v>0</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="2">
         <f>Distances!AC13*Adjacencies!AC13</f>
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="2">
         <f>Distances!AD13*Adjacencies!AD13</f>
         <v>0</v>
       </c>
@@ -7379,119 +7646,119 @@
         <f>Adjacencies!A14</f>
         <v>2122</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <f>Distances!B14*Adjacencies!B14</f>
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f>Distances!C14*Adjacencies!C14</f>
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <f>Distances!D14*Adjacencies!D14</f>
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <f>Distances!E14*Adjacencies!E14</f>
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f>Distances!F14*Adjacencies!F14</f>
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <f>Distances!G14*Adjacencies!G14</f>
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f>Distances!H14*Adjacencies!H14</f>
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f>Distances!I14*Adjacencies!I14</f>
         <v>0</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="2">
         <f>Distances!J14*Adjacencies!J14</f>
         <v>0</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <f>Distances!K14*Adjacencies!K14</f>
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <f>Distances!L14*Adjacencies!L14</f>
         <v>0</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="2">
         <f>Distances!M14*Adjacencies!M14</f>
         <v>3.9690338177918552</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <f>Distances!N14*Adjacencies!N14</f>
         <v>0</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <f>Distances!O14*Adjacencies!O14</f>
         <v>3.0358401257871601</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <f>Distances!P14*Adjacencies!P14</f>
         <v>2.3941287761435861</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="2">
         <f>Distances!Q14*Adjacencies!Q14</f>
         <v>0</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="2">
         <f>Distances!R14*Adjacencies!R14</f>
         <v>0</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="2">
         <f>Distances!S14*Adjacencies!S14</f>
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="2">
         <f>Distances!T14*Adjacencies!T14</f>
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="2">
         <f>Distances!U14*Adjacencies!U14</f>
         <v>0</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="2">
         <f>Distances!V14*Adjacencies!V14</f>
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="2">
         <f>Distances!W14*Adjacencies!W14</f>
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="2">
         <f>Distances!X14*Adjacencies!X14</f>
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="2">
         <f>Distances!Y14*Adjacencies!Y14</f>
         <v>0</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="2">
         <f>Distances!Z14*Adjacencies!Z14</f>
         <v>0</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="2">
         <f>Distances!AA14*Adjacencies!AA14</f>
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="2">
         <f>Distances!AB14*Adjacencies!AB14</f>
         <v>0</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="2">
         <f>Distances!AC14*Adjacencies!AC14</f>
         <v>0</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="2">
         <f>Distances!AD14*Adjacencies!AD14</f>
         <v>0</v>
       </c>
@@ -7501,119 +7768,119 @@
         <f>Adjacencies!A15</f>
         <v>2124</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <f>Distances!B15*Adjacencies!B15</f>
         <v>0</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f>Distances!C15*Adjacencies!C15</f>
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <f>Distances!D15*Adjacencies!D15</f>
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <f>Distances!E15*Adjacencies!E15</f>
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f>Distances!F15*Adjacencies!F15</f>
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <f>Distances!G15*Adjacencies!G15</f>
         <v>0</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f>Distances!H15*Adjacencies!H15</f>
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f>Distances!I15*Adjacencies!I15</f>
         <v>0</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="2">
         <f>Distances!J15*Adjacencies!J15</f>
         <v>0</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <f>Distances!K15*Adjacencies!K15</f>
         <v>0</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <f>Distances!L15*Adjacencies!L15</f>
         <v>0</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="2">
         <f>Distances!M15*Adjacencies!M15</f>
         <v>2.5498205271964949</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <f>Distances!N15*Adjacencies!N15</f>
         <v>3.0358401257871601</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <f>Distances!O15*Adjacencies!O15</f>
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <f>Distances!P15*Adjacencies!P15</f>
         <v>0</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="2">
         <f>Distances!Q15*Adjacencies!Q15</f>
         <v>2.271222943392512</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="2">
         <f>Distances!R15*Adjacencies!R15</f>
         <v>0</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="2">
         <f>Distances!S15*Adjacencies!S15</f>
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="2">
         <f>Distances!T15*Adjacencies!T15</f>
         <v>0</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="2">
         <f>Distances!U15*Adjacencies!U15</f>
         <v>0</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="2">
         <f>Distances!V15*Adjacencies!V15</f>
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="2">
         <f>Distances!W15*Adjacencies!W15</f>
         <v>0</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="2">
         <f>Distances!X15*Adjacencies!X15</f>
         <v>0</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="2">
         <f>Distances!Y15*Adjacencies!Y15</f>
         <v>0</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="2">
         <f>Distances!Z15*Adjacencies!Z15</f>
         <v>0</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="2">
         <f>Distances!AA15*Adjacencies!AA15</f>
         <v>0</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="2">
         <f>Distances!AB15*Adjacencies!AB15</f>
         <v>0</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="2">
         <f>Distances!AC15*Adjacencies!AC15</f>
         <v>0</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="2">
         <f>Distances!AD15*Adjacencies!AD15</f>
         <v>0</v>
       </c>
@@ -7623,119 +7890,119 @@
         <f>Adjacencies!A16</f>
         <v>2125</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <f>Distances!B16*Adjacencies!B16</f>
         <v>0</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f>Distances!C16*Adjacencies!C16</f>
         <v>0</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f>Distances!D16*Adjacencies!D16</f>
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <f>Distances!E16*Adjacencies!E16</f>
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f>Distances!F16*Adjacencies!F16</f>
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <f>Distances!G16*Adjacencies!G16</f>
         <v>0</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f>Distances!H16*Adjacencies!H16</f>
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f>Distances!I16*Adjacencies!I16</f>
         <v>0</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="2">
         <f>Distances!J16*Adjacencies!J16</f>
         <v>2.7508257353477941</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <f>Distances!K16*Adjacencies!K16</f>
         <v>2.5631547264442931</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <f>Distances!L16*Adjacencies!L16</f>
         <v>0</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="2">
         <f>Distances!M16*Adjacencies!M16</f>
         <v>2.7098462038733442</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <f>Distances!N16*Adjacencies!N16</f>
         <v>2.3941287761435861</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <f>Distances!O16*Adjacencies!O16</f>
         <v>0</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <f>Distances!P16*Adjacencies!P16</f>
         <v>0</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="2">
         <f>Distances!Q16*Adjacencies!Q16</f>
         <v>0</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="2">
         <f>Distances!R16*Adjacencies!R16</f>
         <v>2.5057500374405421</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="2">
         <f>Distances!S16*Adjacencies!S16</f>
         <v>0</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="2">
         <f>Distances!T16*Adjacencies!T16</f>
         <v>0</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="2">
         <f>Distances!U16*Adjacencies!U16</f>
         <v>0</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="2">
         <f>Distances!V16*Adjacencies!V16</f>
         <v>0</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="2">
         <f>Distances!W16*Adjacencies!W16</f>
         <v>0</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="2">
         <f>Distances!X16*Adjacencies!X16</f>
         <v>0</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="2">
         <f>Distances!Y16*Adjacencies!Y16</f>
         <v>0</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="2">
         <f>Distances!Z16*Adjacencies!Z16</f>
         <v>0</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="2">
         <f>Distances!AA16*Adjacencies!AA16</f>
         <v>0</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="2">
         <f>Distances!AB16*Adjacencies!AB16</f>
         <v>0</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="2">
         <f>Distances!AC16*Adjacencies!AC16</f>
         <v>0</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="2">
         <f>Distances!AD16*Adjacencies!AD16</f>
         <v>0</v>
       </c>
@@ -7745,119 +8012,119 @@
         <f>Adjacencies!A17</f>
         <v>2126</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <f>Distances!B17*Adjacencies!B17</f>
         <v>0</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f>Distances!C17*Adjacencies!C17</f>
         <v>0</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <f>Distances!D17*Adjacencies!D17</f>
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <f>Distances!E17*Adjacencies!E17</f>
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <f>Distances!F17*Adjacencies!F17</f>
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <f>Distances!G17*Adjacencies!G17</f>
         <v>0</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <f>Distances!H17*Adjacencies!H17</f>
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f>Distances!I17*Adjacencies!I17</f>
         <v>0</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="2">
         <f>Distances!J17*Adjacencies!J17</f>
         <v>0</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <f>Distances!K17*Adjacencies!K17</f>
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <f>Distances!L17*Adjacencies!L17</f>
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="2">
         <f>Distances!M17*Adjacencies!M17</f>
         <v>0</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
         <f>Distances!N17*Adjacencies!N17</f>
         <v>0</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="2">
         <f>Distances!O17*Adjacencies!O17</f>
         <v>2.271222943392512</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="2">
         <f>Distances!P17*Adjacencies!P17</f>
         <v>0</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="2">
         <f>Distances!Q17*Adjacencies!Q17</f>
         <v>0</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="2">
         <f>Distances!R17*Adjacencies!R17</f>
         <v>0</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="2">
         <f>Distances!S17*Adjacencies!S17</f>
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="2">
         <f>Distances!T17*Adjacencies!T17</f>
         <v>0</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="2">
         <f>Distances!U17*Adjacencies!U17</f>
         <v>4.1550792026095538</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="2">
         <f>Distances!V17*Adjacencies!V17</f>
         <v>2.7151387033082282</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="2">
         <f>Distances!W17*Adjacencies!W17</f>
         <v>0</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="2">
         <f>Distances!X17*Adjacencies!X17</f>
         <v>0</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="2">
         <f>Distances!Y17*Adjacencies!Y17</f>
         <v>0</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="2">
         <f>Distances!Z17*Adjacencies!Z17</f>
-        <v>8.1803617101753954</v>
-      </c>
-      <c r="AA17">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="AA17" s="2">
         <f>Distances!AA17*Adjacencies!AA17</f>
         <v>0</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="2">
         <f>Distances!AB17*Adjacencies!AB17</f>
         <v>0</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="2">
         <f>Distances!AC17*Adjacencies!AC17</f>
         <v>0</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="2">
         <f>Distances!AD17*Adjacencies!AD17</f>
         <v>0</v>
       </c>
@@ -7867,119 +8134,119 @@
         <f>Adjacencies!A18</f>
         <v>2127</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <f>Distances!B18*Adjacencies!B18</f>
         <v>0</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <f>Distances!C18*Adjacencies!C18</f>
         <v>0</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <f>Distances!D18*Adjacencies!D18</f>
         <v>2.811209001308312</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <f>Distances!E18*Adjacencies!E18</f>
         <v>2.3856812989190979</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <f>Distances!F18*Adjacencies!F18</f>
         <v>0</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <f>Distances!G18*Adjacencies!G18</f>
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <f>Distances!H18*Adjacencies!H18</f>
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f>Distances!I18*Adjacencies!I18</f>
         <v>0</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="2">
         <f>Distances!J18*Adjacencies!J18</f>
         <v>2.6279915477331102</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="2">
         <f>Distances!K18*Adjacencies!K18</f>
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="2">
         <f>Distances!L18*Adjacencies!L18</f>
         <v>0</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="2">
         <f>Distances!M18*Adjacencies!M18</f>
         <v>0</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="2">
         <f>Distances!N18*Adjacencies!N18</f>
         <v>0</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="2">
         <f>Distances!O18*Adjacencies!O18</f>
         <v>0</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="2">
         <f>Distances!P18*Adjacencies!P18</f>
         <v>2.5057500374405421</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="2">
         <f>Distances!Q18*Adjacencies!Q18</f>
         <v>0</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="2">
         <f>Distances!R18*Adjacencies!R18</f>
         <v>0</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="2">
         <f>Distances!S18*Adjacencies!S18</f>
         <v>0</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="2">
         <f>Distances!T18*Adjacencies!T18</f>
         <v>0</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="2">
         <f>Distances!U18*Adjacencies!U18</f>
         <v>0</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="2">
         <f>Distances!V18*Adjacencies!V18</f>
         <v>0</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="2">
         <f>Distances!W18*Adjacencies!W18</f>
         <v>0</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="2">
         <f>Distances!X18*Adjacencies!X18</f>
         <v>0</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="2">
         <f>Distances!Y18*Adjacencies!Y18</f>
         <v>0</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="2">
         <f>Distances!Z18*Adjacencies!Z18</f>
         <v>0</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="2">
         <f>Distances!AA18*Adjacencies!AA18</f>
         <v>0</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="2">
         <f>Distances!AB18*Adjacencies!AB18</f>
         <v>0</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="2">
         <f>Distances!AC18*Adjacencies!AC18</f>
-        <v>5.3486802952533026</v>
-      </c>
-      <c r="AD18">
+        <v>1.386892181924823</v>
+      </c>
+      <c r="AD18" s="2">
         <f>Distances!AD18*Adjacencies!AD18</f>
         <v>0</v>
       </c>
@@ -7989,119 +8256,119 @@
         <f>Adjacencies!A19</f>
         <v>2128</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <f>Distances!B19*Adjacencies!B19</f>
         <v>0</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <f>Distances!C19*Adjacencies!C19</f>
         <v>0</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <f>Distances!D19*Adjacencies!D19</f>
         <v>3.3970164294594198</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <f>Distances!E19*Adjacencies!E19</f>
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <f>Distances!F19*Adjacencies!F19</f>
         <v>0</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <f>Distances!G19*Adjacencies!G19</f>
         <v>0</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <f>Distances!H19*Adjacencies!H19</f>
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f>Distances!I19*Adjacencies!I19</f>
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="2">
         <f>Distances!J19*Adjacencies!J19</f>
         <v>0</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="2">
         <f>Distances!K19*Adjacencies!K19</f>
         <v>0</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="2">
         <f>Distances!L19*Adjacencies!L19</f>
         <v>0</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="2">
         <f>Distances!M19*Adjacencies!M19</f>
         <v>0</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="2">
         <f>Distances!N19*Adjacencies!N19</f>
         <v>0</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <f>Distances!O19*Adjacencies!O19</f>
         <v>0</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="2">
         <f>Distances!P19*Adjacencies!P19</f>
         <v>0</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="2">
         <f>Distances!Q19*Adjacencies!Q19</f>
         <v>0</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="2">
         <f>Distances!R19*Adjacencies!R19</f>
         <v>0</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="2">
         <f>Distances!S19*Adjacencies!S19</f>
         <v>0</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="2">
         <f>Distances!T19*Adjacencies!T19</f>
         <v>0</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="2">
         <f>Distances!U19*Adjacencies!U19</f>
         <v>0</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="2">
         <f>Distances!V19*Adjacencies!V19</f>
         <v>0</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="2">
         <f>Distances!W19*Adjacencies!W19</f>
         <v>0</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="2">
         <f>Distances!X19*Adjacencies!X19</f>
         <v>0</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="2">
         <f>Distances!Y19*Adjacencies!Y19</f>
         <v>0</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="2">
         <f>Distances!Z19*Adjacencies!Z19</f>
         <v>0</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="2">
         <f>Distances!AA19*Adjacencies!AA19</f>
         <v>0</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="2">
         <f>Distances!AB19*Adjacencies!AB19</f>
         <v>0</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="2">
         <f>Distances!AC19*Adjacencies!AC19</f>
         <v>0</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="2">
         <f>Distances!AD19*Adjacencies!AD19</f>
         <v>0</v>
       </c>
@@ -8111,119 +8378,119 @@
         <f>Adjacencies!A20</f>
         <v>2129</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <f>Distances!B20*Adjacencies!B20</f>
         <v>0</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <f>Distances!C20*Adjacencies!C20</f>
         <v>0</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <f>Distances!D20*Adjacencies!D20</f>
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <f>Distances!E20*Adjacencies!E20</f>
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <f>Distances!F20*Adjacencies!F20</f>
         <v>1.7080886044074259</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <f>Distances!G20*Adjacencies!G20</f>
         <v>0</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <f>Distances!H20*Adjacencies!H20</f>
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <f>Distances!I20*Adjacencies!I20</f>
         <v>0</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="2">
         <f>Distances!J20*Adjacencies!J20</f>
         <v>0</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="2">
         <f>Distances!K20*Adjacencies!K20</f>
         <v>0</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="2">
         <f>Distances!L20*Adjacencies!L20</f>
         <v>0</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="2">
         <f>Distances!M20*Adjacencies!M20</f>
         <v>0</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="2">
         <f>Distances!N20*Adjacencies!N20</f>
         <v>0</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="2">
         <f>Distances!O20*Adjacencies!O20</f>
         <v>0</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="2">
         <f>Distances!P20*Adjacencies!P20</f>
         <v>0</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="2">
         <f>Distances!Q20*Adjacencies!Q20</f>
         <v>0</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="2">
         <f>Distances!R20*Adjacencies!R20</f>
         <v>0</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="2">
         <f>Distances!S20*Adjacencies!S20</f>
         <v>0</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="2">
         <f>Distances!T20*Adjacencies!T20</f>
         <v>0</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="2">
         <f>Distances!U20*Adjacencies!U20</f>
         <v>0</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="2">
         <f>Distances!V20*Adjacencies!V20</f>
         <v>0</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="2">
         <f>Distances!W20*Adjacencies!W20</f>
         <v>0</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="2">
         <f>Distances!X20*Adjacencies!X20</f>
         <v>0</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="2">
         <f>Distances!Y20*Adjacencies!Y20</f>
         <v>0</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="2">
         <f>Distances!Z20*Adjacencies!Z20</f>
         <v>0</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="2">
         <f>Distances!AA20*Adjacencies!AA20</f>
         <v>0</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="2">
         <f>Distances!AB20*Adjacencies!AB20</f>
         <v>0</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="2">
         <f>Distances!AC20*Adjacencies!AC20</f>
         <v>0</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="2">
         <f>Distances!AD20*Adjacencies!AD20</f>
         <v>0</v>
       </c>
@@ -8233,119 +8500,119 @@
         <f>Adjacencies!A21</f>
         <v>2130</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <f>Distances!B21*Adjacencies!B21</f>
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <f>Distances!C21*Adjacencies!C21</f>
         <v>0</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <f>Distances!D21*Adjacencies!D21</f>
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <f>Distances!E21*Adjacencies!E21</f>
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <f>Distances!F21*Adjacencies!F21</f>
         <v>0</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <f>Distances!G21*Adjacencies!G21</f>
         <v>0</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <f>Distances!H21*Adjacencies!H21</f>
         <v>3.902644454426774</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <f>Distances!I21*Adjacencies!I21</f>
         <v>0</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="2">
         <f>Distances!J21*Adjacencies!J21</f>
         <v>0</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="2">
         <f>Distances!K21*Adjacencies!K21</f>
         <v>2.9675745603786128</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="2">
         <f>Distances!L21*Adjacencies!L21</f>
         <v>2.994964441941562</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="2">
         <f>Distances!M21*Adjacencies!M21</f>
         <v>2.3789808824901471</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="2">
         <f>Distances!N21*Adjacencies!N21</f>
         <v>0</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="2">
         <f>Distances!O21*Adjacencies!O21</f>
         <v>0</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="2">
         <f>Distances!P21*Adjacencies!P21</f>
         <v>0</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="2">
         <f>Distances!Q21*Adjacencies!Q21</f>
         <v>0</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="2">
         <f>Distances!R21*Adjacencies!R21</f>
         <v>0</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="2">
         <f>Distances!S21*Adjacencies!S21</f>
         <v>0</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="2">
         <f>Distances!T21*Adjacencies!T21</f>
         <v>0</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="2">
         <f>Distances!U21*Adjacencies!U21</f>
         <v>0</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="2">
         <f>Distances!V21*Adjacencies!V21</f>
         <v>2.8351316192503262</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="2">
         <f>Distances!W21*Adjacencies!W21</f>
         <v>5.0061531075614951</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="2">
         <f>Distances!X21*Adjacencies!X21</f>
         <v>0</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="2">
         <f>Distances!Y21*Adjacencies!Y21</f>
         <v>0</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="2">
         <f>Distances!Z21*Adjacencies!Z21</f>
         <v>0</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="2">
         <f>Distances!AA21*Adjacencies!AA21</f>
         <v>0</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="2">
         <f>Distances!AB21*Adjacencies!AB21</f>
         <v>0</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="2">
         <f>Distances!AC21*Adjacencies!AC21</f>
         <v>0</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="2">
         <f>Distances!AD21*Adjacencies!AD21</f>
         <v>0</v>
       </c>
@@ -8355,119 +8622,119 @@
         <f>Adjacencies!A22</f>
         <v>2131</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <f>Distances!B22*Adjacencies!B22</f>
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <f>Distances!C22*Adjacencies!C22</f>
         <v>0</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <f>Distances!D22*Adjacencies!D22</f>
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <f>Distances!E22*Adjacencies!E22</f>
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f>Distances!F22*Adjacencies!F22</f>
         <v>0</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <f>Distances!G22*Adjacencies!G22</f>
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <f>Distances!H22*Adjacencies!H22</f>
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <f>Distances!I22*Adjacencies!I22</f>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="2">
         <f>Distances!J22*Adjacencies!J22</f>
         <v>0</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <f>Distances!K22*Adjacencies!K22</f>
         <v>0</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="2">
         <f>Distances!L22*Adjacencies!L22</f>
         <v>0</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="2">
         <f>Distances!M22*Adjacencies!M22</f>
         <v>0</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="2">
         <f>Distances!N22*Adjacencies!N22</f>
         <v>0</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="2">
         <f>Distances!O22*Adjacencies!O22</f>
         <v>0</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="2">
         <f>Distances!P22*Adjacencies!P22</f>
         <v>0</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="2">
         <f>Distances!Q22*Adjacencies!Q22</f>
         <v>2.7151387033082282</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="2">
         <f>Distances!R22*Adjacencies!R22</f>
         <v>0</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="2">
         <f>Distances!S22*Adjacencies!S22</f>
         <v>0</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="2">
         <f>Distances!T22*Adjacencies!T22</f>
         <v>0</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="2">
         <f>Distances!U22*Adjacencies!U22</f>
         <v>2.8351316192503262</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="2">
         <f>Distances!V22*Adjacencies!V22</f>
         <v>0</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="2">
         <f>Distances!W22*Adjacencies!W22</f>
         <v>3.0763001394259022</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="2">
         <f>Distances!X22*Adjacencies!X22</f>
         <v>0</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="2">
         <f>Distances!Y22*Adjacencies!Y22</f>
         <v>0</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="2">
         <f>Distances!Z22*Adjacencies!Z22</f>
-        <v>7.8473697941195546</v>
-      </c>
-      <c r="AA22">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="AA22" s="2">
         <f>Distances!AA22*Adjacencies!AA22</f>
         <v>0</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="2">
         <f>Distances!AB22*Adjacencies!AB22</f>
         <v>0</v>
       </c>
-      <c r="AC22">
+      <c r="AC22" s="2">
         <f>Distances!AC22*Adjacencies!AC22</f>
         <v>0</v>
       </c>
-      <c r="AD22">
+      <c r="AD22" s="2">
         <f>Distances!AD22*Adjacencies!AD22</f>
         <v>0</v>
       </c>
@@ -8477,119 +8744,119 @@
         <f>Adjacencies!A23</f>
         <v>2132</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <f>Distances!B23*Adjacencies!B23</f>
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <f>Distances!C23*Adjacencies!C23</f>
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <f>Distances!D23*Adjacencies!D23</f>
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <f>Distances!E23*Adjacencies!E23</f>
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <f>Distances!F23*Adjacencies!F23</f>
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <f>Distances!G23*Adjacencies!G23</f>
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <f>Distances!H23*Adjacencies!H23</f>
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <f>Distances!I23*Adjacencies!I23</f>
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="2">
         <f>Distances!J23*Adjacencies!J23</f>
         <v>0</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <f>Distances!K23*Adjacencies!K23</f>
         <v>0</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="2">
         <f>Distances!L23*Adjacencies!L23</f>
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="2">
         <f>Distances!M23*Adjacencies!M23</f>
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="2">
         <f>Distances!N23*Adjacencies!N23</f>
         <v>0</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="2">
         <f>Distances!O23*Adjacencies!O23</f>
         <v>0</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="2">
         <f>Distances!P23*Adjacencies!P23</f>
         <v>0</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="2">
         <f>Distances!Q23*Adjacencies!Q23</f>
         <v>0</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="2">
         <f>Distances!R23*Adjacencies!R23</f>
         <v>0</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="2">
         <f>Distances!S23*Adjacencies!S23</f>
         <v>0</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="2">
         <f>Distances!T23*Adjacencies!T23</f>
         <v>0</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="2">
         <f>Distances!U23*Adjacencies!U23</f>
         <v>5.0061531075614951</v>
       </c>
-      <c r="V23">
+      <c r="V23" s="2">
         <f>Distances!V23*Adjacencies!V23</f>
         <v>3.0763001394259022</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="2">
         <f>Distances!W23*Adjacencies!W23</f>
         <v>0</v>
       </c>
-      <c r="X23">
+      <c r="X23" s="2">
         <f>Distances!X23*Adjacencies!X23</f>
         <v>0</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" s="2">
         <f>Distances!Y23*Adjacencies!Y23</f>
         <v>0</v>
       </c>
-      <c r="Z23">
+      <c r="Z23" s="2">
         <f>Distances!Z23*Adjacencies!Z23</f>
-        <v>0</v>
-      </c>
-      <c r="AA23">
+        <v>2.44</v>
+      </c>
+      <c r="AA23" s="2">
         <f>Distances!AA23*Adjacencies!AA23</f>
         <v>0</v>
       </c>
-      <c r="AB23">
+      <c r="AB23" s="2">
         <f>Distances!AB23*Adjacencies!AB23</f>
         <v>0</v>
       </c>
-      <c r="AC23">
+      <c r="AC23" s="2">
         <f>Distances!AC23*Adjacencies!AC23</f>
         <v>0</v>
       </c>
-      <c r="AD23">
+      <c r="AD23" s="2">
         <f>Distances!AD23*Adjacencies!AD23</f>
         <v>0</v>
       </c>
@@ -8599,121 +8866,121 @@
         <f>Adjacencies!A24</f>
         <v>2134</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <f>Distances!B24*Adjacencies!B24</f>
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <f>Distances!C24*Adjacencies!C24</f>
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <f>Distances!D24*Adjacencies!D24</f>
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <f>Distances!E24*Adjacencies!E24</f>
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <f>Distances!F24*Adjacencies!F24</f>
         <v>0</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <f>Distances!G24*Adjacencies!G24</f>
         <v>0</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <f>Distances!H24*Adjacencies!H24</f>
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <f>Distances!I24*Adjacencies!I24</f>
         <v>0</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="2">
         <f>Distances!J24*Adjacencies!J24</f>
         <v>0</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <f>Distances!K24*Adjacencies!K24</f>
         <v>0</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <f>Distances!L24*Adjacencies!L24</f>
         <v>0</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="2">
         <f>Distances!M24*Adjacencies!M24</f>
         <v>0</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="2">
         <f>Distances!N24*Adjacencies!N24</f>
         <v>0</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="2">
         <f>Distances!O24*Adjacencies!O24</f>
         <v>0</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="2">
         <f>Distances!P24*Adjacencies!P24</f>
         <v>0</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="2">
         <f>Distances!Q24*Adjacencies!Q24</f>
         <v>0</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="2">
         <f>Distances!R24*Adjacencies!R24</f>
         <v>0</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="2">
         <f>Distances!S24*Adjacencies!S24</f>
         <v>0</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="2">
         <f>Distances!T24*Adjacencies!T24</f>
         <v>0</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="2">
         <f>Distances!U24*Adjacencies!U24</f>
         <v>0</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="2">
         <f>Distances!V24*Adjacencies!V24</f>
         <v>0</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="2">
         <f>Distances!W24*Adjacencies!W24</f>
         <v>0</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="2">
         <f>Distances!X24*Adjacencies!X24</f>
         <v>0</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" s="2">
         <f>Distances!Y24*Adjacencies!Y24</f>
         <v>2.1719578464240521</v>
       </c>
-      <c r="Z24">
+      <c r="Z24" s="2">
         <f>Distances!Z24*Adjacencies!Z24</f>
         <v>0</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="2">
         <f>Distances!AA24*Adjacencies!AA24</f>
-        <v>5.8517965093792981</v>
-      </c>
-      <c r="AB24">
+        <v>4.1022062162205559</v>
+      </c>
+      <c r="AB24" s="2">
         <f>Distances!AB24*Adjacencies!AB24</f>
         <v>0</v>
       </c>
-      <c r="AC24">
+      <c r="AC24" s="2">
         <f>Distances!AC24*Adjacencies!AC24</f>
         <v>0</v>
       </c>
-      <c r="AD24">
+      <c r="AD24" s="2">
         <f>Distances!AD24*Adjacencies!AD24</f>
-        <v>0</v>
+        <v>2.6131979292027672</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -8721,120 +8988,242 @@
         <f>Adjacencies!A25</f>
         <v>2135</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <f>Distances!B25*Adjacencies!B25</f>
         <v>0</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <f>Distances!C25*Adjacencies!C25</f>
         <v>0</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <f>Distances!D25*Adjacencies!D25</f>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <f>Distances!E25*Adjacencies!E25</f>
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <f>Distances!F25*Adjacencies!F25</f>
         <v>0</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <f>Distances!G25*Adjacencies!G25</f>
         <v>0</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <f>Distances!H25*Adjacencies!H25</f>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <f>Distances!I25*Adjacencies!I25</f>
         <v>0</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="2">
         <f>Distances!J25*Adjacencies!J25</f>
         <v>0</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <f>Distances!K25*Adjacencies!K25</f>
         <v>0</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="2">
         <f>Distances!L25*Adjacencies!L25</f>
         <v>0</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="2">
         <f>Distances!M25*Adjacencies!M25</f>
         <v>0</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="2">
         <f>Distances!N25*Adjacencies!N25</f>
         <v>0</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="2">
         <f>Distances!O25*Adjacencies!O25</f>
         <v>0</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="2">
         <f>Distances!P25*Adjacencies!P25</f>
         <v>0</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="2">
         <f>Distances!Q25*Adjacencies!Q25</f>
         <v>0</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="2">
         <f>Distances!R25*Adjacencies!R25</f>
         <v>0</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="2">
         <f>Distances!S25*Adjacencies!S25</f>
         <v>0</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="2">
         <f>Distances!T25*Adjacencies!T25</f>
         <v>0</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="2">
         <f>Distances!U25*Adjacencies!U25</f>
         <v>0</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="2">
         <f>Distances!V25*Adjacencies!V25</f>
         <v>0</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="2">
         <f>Distances!W25*Adjacencies!W25</f>
         <v>0</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="2">
         <f>Distances!X25*Adjacencies!X25</f>
         <v>2.1719578464240521</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="2">
         <f>Distances!Y25*Adjacencies!Y25</f>
         <v>0</v>
       </c>
-      <c r="Z25">
+      <c r="Z25" s="2">
         <f>Distances!Z25*Adjacencies!Z25</f>
         <v>0</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="2">
         <f>Distances!AA25*Adjacencies!AA25</f>
         <v>0</v>
       </c>
-      <c r="AB25">
+      <c r="AB25" s="2">
         <f>Distances!AB25*Adjacencies!AB25</f>
         <v>0</v>
       </c>
-      <c r="AC25">
+      <c r="AC25" s="2">
         <f>Distances!AC25*Adjacencies!AC25</f>
         <v>0</v>
       </c>
-      <c r="AD25">
+      <c r="AD25" s="2">
         <f>Distances!AD25*Adjacencies!AD25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>Adjacencies!A26</f>
+        <v>2136</v>
+      </c>
+      <c r="B26" s="2">
+        <f>Distances!B26*Adjacencies!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <f>Distances!C26*Adjacencies!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f>Distances!D26*Adjacencies!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <f>Distances!E26*Adjacencies!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <f>Distances!F26*Adjacencies!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f>Distances!G26*Adjacencies!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f>Distances!H26*Adjacencies!H26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f>Distances!I26*Adjacencies!I26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <f>Distances!J26*Adjacencies!J26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f>Distances!K26*Adjacencies!K26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <f>Distances!L26*Adjacencies!L26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <f>Distances!M26*Adjacencies!M26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <f>Distances!N26*Adjacencies!N26</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <f>Distances!O26*Adjacencies!O26</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <f>Distances!P26*Adjacencies!P26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>Distances!Q26*Adjacencies!Q26</f>
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="R26" s="2">
+        <f>Distances!R26*Adjacencies!R26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <f>Distances!S26*Adjacencies!S26</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
+        <f>Distances!T26*Adjacencies!T26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="2">
+        <f>Distances!U26*Adjacencies!U26</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="2">
+        <f>Distances!V26*Adjacencies!V26</f>
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="W26" s="2">
+        <f>Distances!W26*Adjacencies!W26</f>
+        <v>2.44</v>
+      </c>
+      <c r="X26" s="2">
+        <f>Distances!X26*Adjacencies!X26</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2">
+        <f>Distances!Y26*Adjacencies!Y26</f>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <f>Distances!Z26*Adjacencies!Z26</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <f>Distances!AA26*Adjacencies!AA26</f>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2">
+        <f>Distances!AB26*Adjacencies!AB26</f>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <f>Distances!AC26*Adjacencies!AC26</f>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="2">
+        <f>Distances!AD26*Adjacencies!AD26</f>
         <v>0</v>
       </c>
     </row>
@@ -8843,120 +9232,120 @@
         <f>Adjacencies!A27</f>
         <v>2199</v>
       </c>
-      <c r="B27">
-        <f>Distances!B26*Adjacencies!B27</f>
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <f>Distances!C26*Adjacencies!C27</f>
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <f>Distances!D26*Adjacencies!D27</f>
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <f>Distances!E26*Adjacencies!E27</f>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <f>Distances!F26*Adjacencies!F27</f>
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <f>Distances!G26*Adjacencies!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <f>Distances!H26*Adjacencies!H27</f>
+      <c r="B27" s="2">
+        <f>Distances!B27*Adjacencies!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <f>Distances!C27*Adjacencies!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f>Distances!D27*Adjacencies!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <f>Distances!E27*Adjacencies!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <f>Distances!F27*Adjacencies!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <f>Distances!G27*Adjacencies!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <f>Distances!H27*Adjacencies!H27</f>
         <v>1.2944616070703141</v>
       </c>
-      <c r="I27">
-        <f>Distances!I26*Adjacencies!I27</f>
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <f>Distances!J26*Adjacencies!J27</f>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f>Distances!K26*Adjacencies!K27</f>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f>Distances!L26*Adjacencies!L27</f>
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <f>Distances!M26*Adjacencies!M27</f>
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <f>Distances!N26*Adjacencies!N27</f>
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f>Distances!O26*Adjacencies!O27</f>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f>Distances!P26*Adjacencies!P27</f>
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <f>Distances!Q26*Adjacencies!Q27</f>
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <f>Distances!R26*Adjacencies!R27</f>
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <f>Distances!S26*Adjacencies!S27</f>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f>Distances!T26*Adjacencies!T27</f>
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <f>Distances!U26*Adjacencies!U27</f>
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <f>Distances!V26*Adjacencies!V27</f>
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <f>Distances!W26*Adjacencies!W27</f>
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <f>Distances!X26*Adjacencies!X27</f>
+      <c r="I27" s="2">
+        <f>Distances!I27*Adjacencies!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <f>Distances!J27*Adjacencies!J27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f>Distances!K27*Adjacencies!K27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <f>Distances!L27*Adjacencies!L27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <f>Distances!M27*Adjacencies!M27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <f>Distances!N27*Adjacencies!N27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <f>Distances!O27*Adjacencies!O27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <f>Distances!P27*Adjacencies!P27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>Distances!Q27*Adjacencies!Q27</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="2">
+        <f>Distances!R27*Adjacencies!R27</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <f>Distances!S27*Adjacencies!S27</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="2">
+        <f>Distances!T27*Adjacencies!T27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="2">
+        <f>Distances!U27*Adjacencies!U27</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="2">
+        <f>Distances!V27*Adjacencies!V27</f>
+        <v>0</v>
+      </c>
+      <c r="W27" s="2">
+        <f>Distances!W27*Adjacencies!W27</f>
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <f>Distances!X27*Adjacencies!X27</f>
         <v>4.1022062162205559</v>
       </c>
-      <c r="Y27">
-        <f>Distances!Y26*Adjacencies!Y27</f>
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <f>Distances!Z26*Adjacencies!Z27</f>
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <f>Distances!AA26*Adjacencies!AA27</f>
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <f>Distances!AB26*Adjacencies!AB27</f>
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <f>Distances!AC26*Adjacencies!AC27</f>
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <f>Distances!AD26*Adjacencies!AD27</f>
+      <c r="Y27" s="2">
+        <f>Distances!Y27*Adjacencies!Y27</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
+        <f>Distances!Z27*Adjacencies!Z27</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <f>Distances!AA27*Adjacencies!AA27</f>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2">
+        <f>Distances!AB27*Adjacencies!AB27</f>
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <f>Distances!AC27*Adjacencies!AC27</f>
+        <v>0</v>
+      </c>
+      <c r="AD27" s="2">
+        <f>Distances!AD27*Adjacencies!AD27</f>
         <v>0</v>
       </c>
     </row>
@@ -8965,120 +9354,120 @@
         <f>Adjacencies!A28</f>
         <v>2203</v>
       </c>
-      <c r="B28">
-        <f>Distances!B27*Adjacencies!B28</f>
+      <c r="B28" s="2">
+        <f>Distances!B28*Adjacencies!B28</f>
         <v>0.6822072111094476</v>
       </c>
-      <c r="C28">
-        <f>Distances!C27*Adjacencies!C28</f>
+      <c r="C28" s="2">
+        <f>Distances!C28*Adjacencies!C28</f>
         <v>0.51242887089719813</v>
       </c>
-      <c r="D28">
-        <f>Distances!D27*Adjacencies!D28</f>
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <f>Distances!E27*Adjacencies!E28</f>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <f>Distances!F27*Adjacencies!F28</f>
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <f>Distances!G27*Adjacencies!G28</f>
+      <c r="D28" s="2">
+        <f>Distances!D28*Adjacencies!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <f>Distances!E28*Adjacencies!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <f>Distances!F28*Adjacencies!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <f>Distances!G28*Adjacencies!G28</f>
         <v>0.6677891066884647</v>
       </c>
-      <c r="H28">
-        <f>Distances!H27*Adjacencies!H28</f>
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <f>Distances!I27*Adjacencies!I28</f>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <f>Distances!J27*Adjacencies!J28</f>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f>Distances!K27*Adjacencies!K28</f>
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <f>Distances!L27*Adjacencies!L28</f>
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <f>Distances!M27*Adjacencies!M28</f>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <f>Distances!N27*Adjacencies!N28</f>
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <f>Distances!O27*Adjacencies!O28</f>
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f>Distances!P27*Adjacencies!P28</f>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f>Distances!Q27*Adjacencies!Q28</f>
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <f>Distances!R27*Adjacencies!R28</f>
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <f>Distances!S27*Adjacencies!S28</f>
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f>Distances!T27*Adjacencies!T28</f>
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <f>Distances!U27*Adjacencies!U28</f>
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <f>Distances!V27*Adjacencies!V28</f>
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <f>Distances!W27*Adjacencies!W28</f>
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <f>Distances!X27*Adjacencies!X28</f>
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <f>Distances!Y27*Adjacencies!Y28</f>
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <f>Distances!Z27*Adjacencies!Z28</f>
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <f>Distances!AA27*Adjacencies!AA28</f>
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <f>Distances!AB27*Adjacencies!AB28</f>
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <f>Distances!AC27*Adjacencies!AC28</f>
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <f>Distances!AD27*Adjacencies!AD28</f>
+      <c r="H28" s="2">
+        <f>Distances!H28*Adjacencies!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <f>Distances!I28*Adjacencies!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <f>Distances!J28*Adjacencies!J28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="2">
+        <f>Distances!K28*Adjacencies!K28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <f>Distances!L28*Adjacencies!L28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <f>Distances!M28*Adjacencies!M28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <f>Distances!N28*Adjacencies!N28</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <f>Distances!O28*Adjacencies!O28</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <f>Distances!P28*Adjacencies!P28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>Distances!Q28*Adjacencies!Q28</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="2">
+        <f>Distances!R28*Adjacencies!R28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <f>Distances!S28*Adjacencies!S28</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="2">
+        <f>Distances!T28*Adjacencies!T28</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="2">
+        <f>Distances!U28*Adjacencies!U28</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="2">
+        <f>Distances!V28*Adjacencies!V28</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="2">
+        <f>Distances!W28*Adjacencies!W28</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="2">
+        <f>Distances!X28*Adjacencies!X28</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2">
+        <f>Distances!Y28*Adjacencies!Y28</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <f>Distances!Z28*Adjacencies!Z28</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <f>Distances!AA28*Adjacencies!AA28</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2">
+        <f>Distances!AB28*Adjacencies!AB28</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <f>Distances!AC28*Adjacencies!AC28</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="2">
+        <f>Distances!AD28*Adjacencies!AD28</f>
         <v>0</v>
       </c>
     </row>
@@ -9087,120 +9476,120 @@
         <f>Adjacencies!A29</f>
         <v>2210</v>
       </c>
-      <c r="B29">
-        <f>Distances!B28*Adjacencies!B29</f>
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <f>Distances!C28*Adjacencies!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <f>Distances!D28*Adjacencies!D29</f>
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <f>Distances!E28*Adjacencies!E29</f>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <f>Distances!F28*Adjacencies!F29</f>
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <f>Distances!G28*Adjacencies!G29</f>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f>Distances!H28*Adjacencies!H29</f>
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <f>Distances!I28*Adjacencies!I29</f>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <f>Distances!J28*Adjacencies!J29</f>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f>Distances!K28*Adjacencies!K29</f>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f>Distances!L28*Adjacencies!L29</f>
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <f>Distances!M28*Adjacencies!M29</f>
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <f>Distances!N28*Adjacencies!N29</f>
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f>Distances!O28*Adjacencies!O29</f>
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <f>Distances!P28*Adjacencies!P29</f>
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <f>Distances!Q28*Adjacencies!Q29</f>
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <f>Distances!R28*Adjacencies!R29</f>
+      <c r="B29" s="2">
+        <f>Distances!B29*Adjacencies!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="2">
+        <f>Distances!C29*Adjacencies!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <f>Distances!D29*Adjacencies!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <f>Distances!E29*Adjacencies!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <f>Distances!F29*Adjacencies!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <f>Distances!G29*Adjacencies!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <f>Distances!H29*Adjacencies!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <f>Distances!I29*Adjacencies!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
+        <f>Distances!J29*Adjacencies!J29</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="2">
+        <f>Distances!K29*Adjacencies!K29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <f>Distances!L29*Adjacencies!L29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <f>Distances!M29*Adjacencies!M29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <f>Distances!N29*Adjacencies!N29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <f>Distances!O29*Adjacencies!O29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <f>Distances!P29*Adjacencies!P29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>Distances!Q29*Adjacencies!Q29</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="2">
+        <f>Distances!R29*Adjacencies!R29</f>
         <v>1.386892181924823</v>
       </c>
-      <c r="S29">
-        <f>Distances!S28*Adjacencies!S29</f>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f>Distances!T28*Adjacencies!T29</f>
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <f>Distances!U28*Adjacencies!U29</f>
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <f>Distances!V28*Adjacencies!V29</f>
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <f>Distances!W28*Adjacencies!W29</f>
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <f>Distances!X28*Adjacencies!X29</f>
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <f>Distances!Y28*Adjacencies!Y29</f>
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <f>Distances!Z28*Adjacencies!Z29</f>
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <f>Distances!AA28*Adjacencies!AA29</f>
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <f>Distances!AB28*Adjacencies!AB29</f>
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <f>Distances!AC28*Adjacencies!AC29</f>
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <f>Distances!AD28*Adjacencies!AD29</f>
+      <c r="S29" s="2">
+        <f>Distances!S29*Adjacencies!S29</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="2">
+        <f>Distances!T29*Adjacencies!T29</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="2">
+        <f>Distances!U29*Adjacencies!U29</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="2">
+        <f>Distances!V29*Adjacencies!V29</f>
+        <v>0</v>
+      </c>
+      <c r="W29" s="2">
+        <f>Distances!W29*Adjacencies!W29</f>
+        <v>0</v>
+      </c>
+      <c r="X29" s="2">
+        <f>Distances!X29*Adjacencies!X29</f>
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2">
+        <f>Distances!Y29*Adjacencies!Y29</f>
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <f>Distances!Z29*Adjacencies!Z29</f>
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <f>Distances!AA29*Adjacencies!AA29</f>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2">
+        <f>Distances!AB29*Adjacencies!AB29</f>
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <f>Distances!AC29*Adjacencies!AC29</f>
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <f>Distances!AD29*Adjacencies!AD29</f>
         <v>0</v>
       </c>
     </row>
@@ -9209,120 +9598,120 @@
         <f>Adjacencies!A30</f>
         <v>2215</v>
       </c>
-      <c r="B30">
-        <f>Distances!B29*Adjacencies!B30</f>
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <f>Distances!C29*Adjacencies!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <f>Distances!D29*Adjacencies!D30</f>
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <f>Distances!E29*Adjacencies!E30</f>
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <f>Distances!F29*Adjacencies!F30</f>
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <f>Distances!G29*Adjacencies!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f>Distances!H29*Adjacencies!H30</f>
+      <c r="B30" s="2">
+        <f>Distances!B30*Adjacencies!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
+        <f>Distances!C30*Adjacencies!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <f>Distances!D30*Adjacencies!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <f>Distances!E30*Adjacencies!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <f>Distances!F30*Adjacencies!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <f>Distances!G30*Adjacencies!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <f>Distances!H30*Adjacencies!H30</f>
         <v>0.90759130497246754</v>
       </c>
-      <c r="I30">
-        <f>Distances!I29*Adjacencies!I30</f>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <f>Distances!J29*Adjacencies!J30</f>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f>Distances!K29*Adjacencies!K30</f>
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f>Distances!L29*Adjacencies!L30</f>
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <f>Distances!M29*Adjacencies!M30</f>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <f>Distances!N29*Adjacencies!N30</f>
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <f>Distances!O29*Adjacencies!O30</f>
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <f>Distances!P29*Adjacencies!P30</f>
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <f>Distances!Q29*Adjacencies!Q30</f>
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <f>Distances!R29*Adjacencies!R30</f>
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <f>Distances!S29*Adjacencies!S30</f>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f>Distances!T29*Adjacencies!T30</f>
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <f>Distances!U29*Adjacencies!U30</f>
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <f>Distances!V29*Adjacencies!V30</f>
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <f>Distances!W29*Adjacencies!W30</f>
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <f>Distances!X29*Adjacencies!X30</f>
+      <c r="I30" s="2">
+        <f>Distances!I30*Adjacencies!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
+        <f>Distances!J30*Adjacencies!J30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="2">
+        <f>Distances!K30*Adjacencies!K30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <f>Distances!L30*Adjacencies!L30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <f>Distances!M30*Adjacencies!M30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <f>Distances!N30*Adjacencies!N30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <f>Distances!O30*Adjacencies!O30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <f>Distances!P30*Adjacencies!P30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>Distances!Q30*Adjacencies!Q30</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="2">
+        <f>Distances!R30*Adjacencies!R30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
+        <f>Distances!S30*Adjacencies!S30</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <f>Distances!T30*Adjacencies!T30</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <f>Distances!U30*Adjacencies!U30</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <f>Distances!V30*Adjacencies!V30</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
+        <f>Distances!W30*Adjacencies!W30</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="2">
+        <f>Distances!X30*Adjacencies!X30</f>
         <v>2.6131979292027672</v>
       </c>
-      <c r="Y30">
-        <f>Distances!Y29*Adjacencies!Y30</f>
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <f>Distances!Z29*Adjacencies!Z30</f>
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <f>Distances!AA29*Adjacencies!AA30</f>
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <f>Distances!AB29*Adjacencies!AB30</f>
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <f>Distances!AC29*Adjacencies!AC30</f>
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <f>Distances!AD29*Adjacencies!AD30</f>
+      <c r="Y30" s="2">
+        <f>Distances!Y30*Adjacencies!Y30</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <f>Distances!Z30*Adjacencies!Z30</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <f>Distances!AA30*Adjacencies!AA30</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2">
+        <f>Distances!AB30*Adjacencies!AB30</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2">
+        <f>Distances!AC30*Adjacencies!AC30</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
+        <f>Distances!AD30*Adjacencies!AD30</f>
         <v>0</v>
       </c>
     </row>
